--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -63,6 +63,34 @@
   </si>
   <si>
     <t>高二（文科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈伟玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -450,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -465,59 +496,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>18871831827</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="3">
         <v>15172852482</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="3">
         <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -550,5 +648,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>姓名</t>
   </si>
@@ -91,6 +91,26 @@
   </si>
   <si>
     <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +504,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -554,6 +574,29 @@
       </c>
       <c r="I3" s="3">
         <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8">
+        <v>18871821756</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8">
+        <v>13958684076</v>
       </c>
     </row>
     <row r="27" spans="1:9">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -111,6 +111,25 @@
   </si>
   <si>
     <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+  </si>
+  <si>
+    <t>李隆鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +222,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -515,12 +540,12 @@
     <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,17 +564,17 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -568,15 +593,14 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3">
+        <v>15172852482</v>
+      </c>
       <c r="H3" s="3">
-        <v>15172852482</v>
-      </c>
-      <c r="I3" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -595,9 +619,34 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
         <v>13958684076</v>
       </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8">
+        <v>15570561525</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9">
+        <v>17768307585</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>姓名</t>
   </si>
@@ -130,6 +130,26 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,9 +236,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -529,12 +546,13 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
@@ -570,7 +588,7 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -584,7 +602,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5">
@@ -610,16 +628,16 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>18871821756</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>13958684076</v>
       </c>
     </row>
@@ -627,26 +645,52 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>15570561525</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>17768307585</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15171954812</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7">
+        <v>15818501395</v>
+      </c>
+      <c r="H6" s="7">
+        <v>600</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
@@ -692,7 +736,7 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>200</v>
       </c>
     </row>
@@ -706,7 +750,7 @@
       <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>200</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>姓名</t>
   </si>
@@ -30,27 +30,119 @@
     <t>班主任</t>
   </si>
   <si>
+    <t>家长联系方式</t>
+  </si>
+  <si>
+    <t>缴费</t>
+  </si>
+  <si>
+    <t>杨老师</t>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二（文科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈伟玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+  </si>
+  <si>
+    <t>李隆鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>家长联系方式</t>
-  </si>
-  <si>
-    <t>缴费</t>
-  </si>
-  <si>
-    <t>杨老师</t>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,15 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二（文科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贝</t>
+    <t>龙俞静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,82 +158,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈伟玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理/数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-  </si>
-  <si>
-    <t>李隆鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理/数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覃老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙俞洁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
@@ -560,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -571,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -583,33 +596,33 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>18871831827</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
         <v>15172852482</v>
@@ -620,22 +633,22 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="7">
         <v>18871821756</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7">
         <v>13958684076</v>
@@ -643,22 +656,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="7">
         <v>15570561525</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8">
         <v>17768307585</v>
@@ -668,22 +681,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="7">
         <v>15171954812</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7">
         <v>15818501395</v>
@@ -692,12 +705,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,53 +718,75 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="7">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="7">
-        <v>200</v>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7">
+        <v>15172819967</v>
+      </c>
+      <c r="E31" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="7">
+        <v>15172819967</v>
+      </c>
+      <c r="E32" s="7">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -163,6 +163,22 @@
   </si>
   <si>
     <t>龙俞洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晓蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +274,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -622,7 +641,7 @@
         <v>18871831827</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3">
         <v>15172852482</v>
@@ -702,6 +721,29 @@
         <v>15818501395</v>
       </c>
       <c r="H6" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="10">
+        <v>18727677896</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7">
         <v>600</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>姓名</t>
   </si>
@@ -179,6 +179,242 @@
   </si>
   <si>
     <t>杨老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石老师</t>
+  </si>
+  <si>
+    <t>有希望报名的学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉雾中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴涛妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思源中学第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱学治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中部</t>
+  </si>
+  <si>
+    <t>曾得珉</t>
+  </si>
+  <si>
+    <t>都亭一中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周洪令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张泓翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭诗广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃春燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴翔宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎霜婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵玲钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（文科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄钰兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思源中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫</t>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫，有一张洗过的钱，差800元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫，差500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫，差600元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫，差1300元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李相明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差400元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷春艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应缴费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,27 +811,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +862,11 @@
       <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -649,8 +891,11 @@
       <c r="H3" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -672,8 +917,17 @@
       <c r="G4" s="7">
         <v>13958684076</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="H4" s="7">
+        <v>800</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -695,10 +949,15 @@
       <c r="G5" s="8">
         <v>17768307585</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="7">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -723,8 +982,11 @@
       <c r="H6" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -743,92 +1005,856 @@
       <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G7" s="10">
+        <v>18727677896</v>
+      </c>
       <c r="H7" s="7">
         <v>600</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="L7" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7">
+        <v>15171095154</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7">
+        <v>13971887715</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="7">
+        <v>13451024833</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="7">
+        <v>15549234573</v>
+      </c>
+      <c r="H9" s="7">
+        <v>700</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7">
+        <v>15717260269</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7">
+        <v>13697185795</v>
+      </c>
+      <c r="H10" s="7">
+        <v>600</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7">
+        <v>15171093139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7">
+        <v>15549156355</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7">
+        <v>18872148745</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7">
+        <v>15995218243</v>
+      </c>
+      <c r="H12" s="7">
+        <v>700</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7">
+        <v>18872810657</v>
+      </c>
+      <c r="H13" s="7">
+        <v>700</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7">
+        <v>18807260781</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7">
+        <v>15172957077</v>
+      </c>
+      <c r="H14" s="7">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="7">
+        <v>18371821613</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7">
+        <v>18371807908</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="7">
+        <v>13451015877</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7">
+        <v>18724048728</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15027197479</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7">
+        <v>13047192466</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="7">
+        <v>18271710376</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="7">
+        <v>15272917178</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15071869362</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="7">
+        <v>13986855762</v>
+      </c>
+      <c r="H19" s="7">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7">
+        <v>15587656935</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="7">
+        <v>15926105372</v>
+      </c>
+      <c r="H20" s="7">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7">
+        <v>18327434602</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="7">
+        <v>18621788095</v>
+      </c>
+      <c r="H21" s="7">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7">
+        <v>15707257559</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="7">
+        <v>13597784302</v>
+      </c>
+      <c r="H22" s="7">
+        <v>700</v>
+      </c>
+      <c r="L22" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="7">
+        <v>15071882063</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="7">
+        <v>700</v>
+      </c>
+      <c r="L23" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7">
+        <v>18371816849</v>
+      </c>
+      <c r="G24" s="7">
+        <v>13597792576</v>
+      </c>
+      <c r="H24" s="7">
+        <v>700</v>
+      </c>
+      <c r="L24" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7">
+        <v>15926143991</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="7">
+        <v>13764023742</v>
+      </c>
+      <c r="H25" s="7">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7">
+        <v>15172947448</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="7">
+        <v>13477901880</v>
+      </c>
+      <c r="H26" s="8">
+        <v>100</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="L27" s="7">
+        <f>SUM(L3:L26)</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="7">
+        <v>13277561812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="7">
+        <v>15586659326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="7">
+        <v>15272908679</v>
+      </c>
+      <c r="G37" s="7">
+        <v>13592915206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="7">
+        <v>15971779578</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C45" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E45" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E46" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C47" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D47" s="7">
         <v>15172819967</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E47" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D48" s="7">
         <v>15172819967</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E48" s="7">
         <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7">
+        <v>18872794451</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7">
+        <v>15707257559</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7">
+        <v>13235594869</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7">
+        <v>13227499280</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7">
+        <v>15171055995</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7">
+        <v>15707257559</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>姓名</t>
   </si>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五中学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴涛妈妈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +328,6 @@
   </si>
   <si>
     <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有希望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -811,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -863,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -921,7 +913,7 @@
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7">
         <v>1200</v>
@@ -1046,7 +1038,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>44</v>
@@ -1055,13 +1047,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="7">
         <v>13451024833</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="7">
         <v>15549234573</v>
@@ -1070,7 +1062,7 @@
         <v>700</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L9" s="7">
         <v>700</v>
@@ -1078,7 +1070,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
@@ -1087,13 +1079,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7">
         <v>15717260269</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7">
         <v>13697185795</v>
@@ -1102,7 +1094,7 @@
         <v>600</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7">
         <v>1400</v>
@@ -1110,7 +1102,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -1119,13 +1111,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="7">
         <v>15171093139</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7">
         <v>15549156355</v>
@@ -1134,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7">
         <v>700</v>
@@ -1142,7 +1134,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>44</v>
@@ -1151,13 +1143,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="7">
         <v>18872148745</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7">
         <v>15995218243</v>
@@ -1166,7 +1158,7 @@
         <v>700</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L12" s="7">
         <v>700</v>
@@ -1174,7 +1166,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>44</v>
@@ -1183,10 +1175,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7">
         <v>18872810657</v>
@@ -1195,7 +1187,7 @@
         <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7">
         <v>700</v>
@@ -1203,7 +1195,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>44</v>
@@ -1212,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7">
         <v>18807260781</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7">
         <v>15172957077</v>
@@ -1227,7 +1219,7 @@
         <v>200</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7">
         <v>700</v>
@@ -1235,7 +1227,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>44</v>
@@ -1244,13 +1236,13 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7">
         <v>18371821613</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="7">
         <v>18371807908</v>
@@ -1259,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7">
         <v>700</v>
@@ -1267,7 +1259,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>44</v>
@@ -1276,13 +1268,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7">
         <v>13451015877</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7">
         <v>18724048728</v>
@@ -1291,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7">
         <v>700</v>
@@ -1299,7 +1291,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>44</v>
@@ -1308,13 +1300,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7">
         <v>15027197479</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7">
         <v>13047192466</v>
@@ -1323,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7">
         <v>700</v>
@@ -1331,7 +1323,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>44</v>
@@ -1340,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7">
         <v>18271710376</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="7">
         <v>15272917178</v>
@@ -1355,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7">
         <v>700</v>
@@ -1363,7 +1355,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>44</v>
@@ -1372,13 +1364,13 @@
         <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7">
         <v>15071869362</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7">
         <v>13986855762</v>
@@ -1387,7 +1379,7 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7">
         <v>700</v>
@@ -1395,7 +1387,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>44</v>
@@ -1404,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="7">
         <v>15587656935</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7">
         <v>15926105372</v>
@@ -1419,7 +1411,7 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7">
         <v>700</v>
@@ -1427,7 +1419,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>44</v>
@@ -1436,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="7">
         <v>18327434602</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7">
         <v>18621788095</v>
@@ -1451,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7">
         <v>1400</v>
@@ -1459,22 +1451,22 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="7">
         <v>15707257559</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="7">
         <v>13597784302</v>
@@ -1488,22 +1480,22 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="7">
         <v>15071882063</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>700</v>
@@ -1514,7 +1506,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>44</v>
@@ -1523,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="7">
         <v>18371816849</v>
@@ -1540,22 +1532,22 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7">
         <v>15926143991</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7">
         <v>13764023742</v>
@@ -1564,7 +1556,7 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7">
         <v>1400</v>
@@ -1572,22 +1564,22 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E26" s="7">
         <v>15172947448</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7">
         <v>13477901880</v>
@@ -1596,7 +1588,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7">
@@ -1611,7 +1603,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1645,16 +1637,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E35" s="7">
         <v>13277561812</v>
@@ -1662,16 +1654,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
       </c>
       <c r="E36" s="7">
         <v>15586659326</v>
@@ -1679,16 +1671,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
       </c>
       <c r="E37" s="7">
         <v>15272908679</v>
@@ -1699,16 +1691,16 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
         <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
       </c>
       <c r="G38" s="7">
         <v>15971779578</v>
@@ -1717,7 +1709,7 @@
         <v>1500</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1819,7 +1811,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7">
-        <v>15707257559</v>
+        <v>13235594869</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -1827,7 +1819,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="7">
-        <v>13235594869</v>
+        <v>13227499280</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
@@ -1835,27 +1827,14 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="7">
-        <v>13227499280</v>
+        <v>15171055995</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="7">
-        <v>15171055995</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7">
-        <v>15707257559</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
+      <c r="A57" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
   <si>
     <t>姓名</t>
   </si>
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫（返代金券）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1525,6 +1529,9 @@
       </c>
       <c r="H24" s="7">
         <v>700</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
       </c>
       <c r="L24" s="7">
         <v>700</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
   <si>
     <t>姓名</t>
   </si>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>胡成果/李隆鑫（返代金券）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1803,12 +1815,29 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49">
+        <v>13997778818</v>
+      </c>
+      <c r="E49" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:5">
       <c r="A53" s="7">
         <v>18872794451</v>
       </c>
@@ -1816,7 +1845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:5">
       <c r="A54" s="7">
         <v>13235594869</v>
       </c>
@@ -1824,7 +1853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:5">
       <c r="A55" s="7">
         <v>13227499280</v>
       </c>
@@ -1832,7 +1861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:5">
       <c r="A56" s="7">
         <v>15171055995</v>
       </c>
@@ -1840,7 +1869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:5">
       <c r="A57" s="7"/>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
   <si>
     <t>姓名</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>五年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟荇雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -819,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -832,6 +847,7 @@
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
@@ -1766,6 +1782,9 @@
       <c r="E45" s="7">
         <v>200</v>
       </c>
+      <c r="F45" s="11">
+        <v>42430</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -1780,6 +1799,9 @@
       <c r="E46" s="7">
         <v>200</v>
       </c>
+      <c r="F46" s="11">
+        <v>42430</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
@@ -1797,6 +1819,9 @@
       <c r="E47" s="7">
         <v>300</v>
       </c>
+      <c r="F47" s="11">
+        <v>42430</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
@@ -1814,8 +1839,11 @@
       <c r="E48" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="11">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1831,46 +1859,66 @@
       <c r="E49" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="F49" s="11">
+        <v>42436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>13235446111</v>
+      </c>
+      <c r="E50" s="7">
+        <v>300</v>
+      </c>
+      <c r="F50" s="11">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="7">
+    <row r="58" spans="1:6">
+      <c r="A58" s="7">
         <v>18872794451</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="7">
+    <row r="59" spans="1:6">
+      <c r="A59" s="7">
         <v>13235594869</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="7">
+    <row r="60" spans="1:6">
+      <c r="A60" s="7">
         <v>13227499280</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="7">
+    <row r="61" spans="1:6">
+      <c r="A61" s="7">
         <v>15171055995</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="109">
   <si>
     <t>姓名</t>
   </si>
@@ -435,6 +435,10 @@
   </si>
   <si>
     <t>四年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差1300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +472,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
@@ -501,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +556,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -973,8 +998,11 @@
       <c r="G5" s="8">
         <v>17768307585</v>
       </c>
-      <c r="H5" s="8">
-        <v>0</v>
+      <c r="H5" s="12">
+        <v>1300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7">
@@ -1073,7 +1101,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>22</v>
@@ -1122,8 +1150,8 @@
       <c r="G10" s="7">
         <v>13697185795</v>
       </c>
-      <c r="H10" s="7">
-        <v>600</v>
+      <c r="H10" s="13">
+        <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>89</v>
@@ -1155,7 +1183,7 @@
         <v>15549156355</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
@@ -1247,8 +1275,8 @@
       <c r="G14" s="7">
         <v>15172957077</v>
       </c>
-      <c r="H14" s="7">
-        <v>200</v>
+      <c r="H14" s="13">
+        <v>700</v>
       </c>
       <c r="I14" t="s">
         <v>90</v>
@@ -1407,8 +1435,8 @@
       <c r="G19" s="7">
         <v>13986855762</v>
       </c>
-      <c r="H19" s="7">
-        <v>100</v>
+      <c r="H19" s="13">
+        <v>700</v>
       </c>
       <c r="I19" t="s">
         <v>91</v>
@@ -1471,8 +1499,8 @@
       <c r="G21" s="7">
         <v>18621788095</v>
       </c>
-      <c r="H21" s="7">
-        <v>100</v>
+      <c r="H21" s="13">
+        <v>1400</v>
       </c>
       <c r="I21" t="s">
         <v>92</v>
@@ -1631,6 +1659,10 @@
       </c>
     </row>
     <row r="27" spans="1:12">
+      <c r="H27" s="7">
+        <f>SUM(H3:H26)</f>
+        <v>13300</v>
+      </c>
       <c r="L27" s="7">
         <f>SUM(L3:L26)</f>
         <v>19500</v>
@@ -1881,6 +1913,12 @@
       </c>
       <c r="F50" s="11">
         <v>42437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="E51">
+        <f>SUM(E45:E50)</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="57" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>姓名</t>
   </si>
@@ -430,15 +430,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>四年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+  </si>
+  <si>
     <t>实验小学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差1300</t>
+    <t>13593606827/15571801728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹栋兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,13 +565,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -870,9 +881,9 @@
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
@@ -998,11 +1009,11 @@
       <c r="G5" s="8">
         <v>17768307585</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1300</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7">
@@ -1101,7 +1112,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>22</v>
@@ -1150,7 +1161,7 @@
       <c r="G10" s="7">
         <v>13697185795</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -1275,7 +1286,7 @@
       <c r="G14" s="7">
         <v>15172957077</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>700</v>
       </c>
       <c r="I14" t="s">
@@ -1435,7 +1446,7 @@
       <c r="G19" s="7">
         <v>13986855762</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>700</v>
       </c>
       <c r="I19" t="s">
@@ -1499,7 +1510,7 @@
       <c r="G21" s="7">
         <v>18621788095</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>1400</v>
       </c>
       <c r="I21" t="s">
@@ -1814,7 +1825,7 @@
       <c r="E45" s="7">
         <v>200</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="13">
         <v>42430</v>
       </c>
     </row>
@@ -1831,7 +1842,7 @@
       <c r="E46" s="7">
         <v>200</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="13">
         <v>42430</v>
       </c>
     </row>
@@ -1851,7 +1862,7 @@
       <c r="E47" s="7">
         <v>300</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="13">
         <v>42430</v>
       </c>
     </row>
@@ -1871,7 +1882,7 @@
       <c r="E48" s="7">
         <v>300</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="13">
         <v>42430</v>
       </c>
     </row>
@@ -1885,13 +1896,13 @@
       <c r="C49" t="s">
         <v>104</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="7">
         <v>13997778818</v>
       </c>
       <c r="E49" s="7">
         <v>300</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="13">
         <v>42436</v>
       </c>
     </row>
@@ -1900,25 +1911,37 @@
         <v>105</v>
       </c>
       <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
       </c>
-      <c r="C50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <v>13235446111</v>
       </c>
       <c r="E50" s="7">
         <v>300</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="13">
         <v>42437</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="E51">
-        <f>SUM(E45:E50)</f>
-        <v>1600</v>
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="13">
+        <v>42444</v>
       </c>
     </row>
     <row r="57" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1939,9 +1939,17 @@
       <c r="D51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="7">
+        <v>1100</v>
+      </c>
       <c r="F51" s="13">
         <v>42444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="E52">
+        <f>SUM(E45:E51)</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="57" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>姓名</t>
   </si>
@@ -217,40 +217,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>思源中学第一名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱学治</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初中部</t>
-  </si>
-  <si>
-    <t>曾得珉</t>
-  </si>
-  <si>
-    <t>都亭一中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周洪令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴祥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张泓翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,22 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邹涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覃春燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王小凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>差500元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄钰兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思源中学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡成果/李隆鑫</t>
   </si>
   <si>
@@ -362,14 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡成果/李隆鑫，有一张洗过的钱，差800元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡成果/李隆鑫，差500元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡成果/李隆鑫，差600元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差400元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>殷春艳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡成果/李隆鑫（返代金券）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五年级</t>
   </si>
   <si>
@@ -450,6 +376,22 @@
   </si>
   <si>
     <t>邹栋兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫，有一张洗过的钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差600元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中同学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,21 +425,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
@@ -531,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,12 +490,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -870,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -886,15 +807,15 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,16 +838,16 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -951,11 +872,11 @@
       <c r="H3" s="3">
         <v>600</v>
       </c>
-      <c r="L3" s="7">
+      <c r="J3" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -978,16 +899,13 @@
         <v>13958684076</v>
       </c>
       <c r="H4" s="7">
-        <v>800</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="7">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1009,18 +927,15 @@
       <c r="G5" s="8">
         <v>17768307585</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>1300</v>
       </c>
-      <c r="I5" t="s">
-        <v>107</v>
+      <c r="J5" s="7">
+        <v>1300</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1045,11 +960,11 @@
       <c r="H6" s="7">
         <v>600</v>
       </c>
-      <c r="L6" s="7">
+      <c r="J6" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1074,11 +989,11 @@
       <c r="H7" s="7">
         <v>600</v>
       </c>
-      <c r="L7" s="7">
+      <c r="J7" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1103,13 +1018,16 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="L8" s="7">
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>21</v>
@@ -1118,13 +1036,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7">
         <v>13451024833</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7">
         <v>15549234573</v>
@@ -1133,15 +1051,15 @@
         <v>700</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>74</v>
+      </c>
+      <c r="J9" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
@@ -1150,30 +1068,30 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7">
         <v>15717260269</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7">
         <v>13697185795</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="7">
+        <v>93</v>
+      </c>
+      <c r="J10" s="7">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -1182,13 +1100,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7">
         <v>15171093139</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7">
         <v>15549156355</v>
@@ -1197,15 +1115,15 @@
         <v>700</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>73</v>
+      </c>
+      <c r="J11" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>44</v>
@@ -1214,13 +1132,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7">
         <v>18872148745</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7">
         <v>15995218243</v>
@@ -1229,15 +1147,15 @@
         <v>700</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>73</v>
+      </c>
+      <c r="J12" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>44</v>
@@ -1246,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7">
         <v>18872810657</v>
@@ -1258,15 +1176,15 @@
         <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>73</v>
+      </c>
+      <c r="J13" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>44</v>
@@ -1275,30 +1193,30 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7">
         <v>18807260781</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7">
         <v>15172957077</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <v>700</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>74</v>
+      </c>
+      <c r="J14" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>44</v>
@@ -1307,30 +1225,30 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7">
-        <v>18371821613</v>
+        <v>15071869362</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7">
-        <v>18371807908</v>
+        <v>13986855762</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>74</v>
+      </c>
+      <c r="J15" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>44</v>
@@ -1339,30 +1257,30 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7">
+        <v>15587656935</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7">
+        <v>15926105372</v>
+      </c>
+      <c r="H16" s="7">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>67</v>
-      </c>
-      <c r="E16" s="7">
-        <v>13451015877</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7">
-        <v>18724048728</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>44</v>
@@ -1371,94 +1289,85 @@
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="7">
-        <v>15027197479</v>
+        <v>18327434602</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7">
-        <v>13047192466</v>
+        <v>18621788095</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>74</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E18" s="7">
-        <v>18271710376</v>
+        <v>15707257559</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G18" s="7">
-        <v>15272917178</v>
+        <v>13597784302</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>700</v>
+      </c>
+      <c r="J18" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E19" s="7">
-        <v>15071869362</v>
+        <v>15071882063</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="7">
-        <v>13986855762</v>
-      </c>
-      <c r="H19" s="12">
-        <v>700</v>
-      </c>
-      <c r="I19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="H19" s="7">
+        <v>700</v>
+      </c>
+      <c r="J19" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>44</v>
@@ -1467,526 +1376,296 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7">
-        <v>15587656935</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
+        <v>18371816849</v>
       </c>
       <c r="G20" s="7">
-        <v>15926105372</v>
+        <v>13597792576</v>
       </c>
       <c r="H20" s="7">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>83</v>
+      </c>
+      <c r="J20" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7">
+        <v>15926143991</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7">
+        <v>13764023742</v>
+      </c>
+      <c r="H21" s="7">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="7">
-        <v>18327434602</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7">
-        <v>18621788095</v>
-      </c>
-      <c r="H21" s="12">
-        <v>1400</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="7">
+        <v>15172947448</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7">
+        <v>13477901880</v>
+      </c>
+      <c r="H22" s="8">
+        <v>100</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="7">
+        <v>600</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="H23" s="7">
+        <f>SUM(H3:H22)</f>
+        <v>13700</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUM(J3:J22)</f>
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7">
+        <v>200</v>
+      </c>
+      <c r="F32" s="11">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="7">
+        <v>200</v>
+      </c>
+      <c r="F33" s="11">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="7">
+        <v>15172819967</v>
+      </c>
+      <c r="E34" s="7">
+        <v>300</v>
+      </c>
+      <c r="F34" s="11">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7">
+        <v>15172819967</v>
+      </c>
+      <c r="E35" s="7">
+        <v>300</v>
+      </c>
+      <c r="F35" s="11">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="7">
+        <v>13997778818</v>
+      </c>
+      <c r="E36" s="7">
+        <v>300</v>
+      </c>
+      <c r="F36" s="11">
+        <v>42436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="7">
+        <v>13235446111</v>
+      </c>
+      <c r="E37" s="7">
+        <v>300</v>
+      </c>
+      <c r="F37" s="11">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="7">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="7">
-        <v>15707257559</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="7">
-        <v>13597784302</v>
-      </c>
-      <c r="H22" s="7">
-        <v>700</v>
-      </c>
-      <c r="L22" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="7">
-        <v>15071882063</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="7">
-        <v>700</v>
-      </c>
-      <c r="L23" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="7">
-        <v>18371816849</v>
-      </c>
-      <c r="G24" s="7">
-        <v>13597792576</v>
-      </c>
-      <c r="H24" s="7">
-        <v>700</v>
-      </c>
-      <c r="I24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1100</v>
+      </c>
+      <c r="F38" s="11">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="E39">
+        <f>SUM(E32:E38)</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
+        <v>18872794451</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
+        <v>13235594869</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
+        <v>15171055995</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
+        <v>15172812542</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="7">
-        <v>15926143991</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="7">
-        <v>13764023742</v>
-      </c>
-      <c r="H25" s="7">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="7">
-        <v>15172947448</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="7">
-        <v>13477901880</v>
-      </c>
-      <c r="H26" s="8">
-        <v>100</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="H27" s="7">
-        <f>SUM(H3:H26)</f>
-        <v>13300</v>
-      </c>
-      <c r="L27" s="7">
-        <f>SUM(L3:L26)</f>
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="7">
-        <v>13277561812</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="7">
-        <v>15586659326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="7">
-        <v>15272908679</v>
-      </c>
-      <c r="G37" s="7">
-        <v>13592915206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="7">
-        <v>15971779578</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="7">
-        <v>200</v>
-      </c>
-      <c r="F45" s="13">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="7">
-        <v>200</v>
-      </c>
-      <c r="F46" s="13">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="7">
-        <v>15172819967</v>
-      </c>
-      <c r="E47" s="7">
-        <v>300</v>
-      </c>
-      <c r="F47" s="13">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="7">
-        <v>15172819967</v>
-      </c>
-      <c r="E48" s="7">
-        <v>300</v>
-      </c>
-      <c r="F48" s="13">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="7">
-        <v>13997778818</v>
-      </c>
-      <c r="E49" s="7">
-        <v>300</v>
-      </c>
-      <c r="F49" s="13">
-        <v>42436</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="7">
-        <v>13235446111</v>
-      </c>
-      <c r="E50" s="7">
-        <v>300</v>
-      </c>
-      <c r="F50" s="13">
-        <v>42437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1100</v>
-      </c>
-      <c r="F51" s="13">
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="E52">
-        <f>SUM(E45:E51)</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="7">
-        <v>18872794451</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="7">
-        <v>13235594869</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="7">
-        <v>13227499280</v>
-      </c>
-      <c r="B60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="7">
-        <v>15171055995</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t>姓名</t>
   </si>
@@ -205,10 +205,6 @@
     <t>石老师</t>
   </si>
   <si>
-    <t>有希望报名的学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凉雾中学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +388,38 @@
   </si>
   <si>
     <t>二中同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预报名的学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李朝扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾德茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预报名的体训学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -838,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1019,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="7">
         <v>600</v>
@@ -1027,7 +1055,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>21</v>
@@ -1036,13 +1064,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7">
         <v>13451024833</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7">
         <v>15549234573</v>
@@ -1051,7 +1079,7 @@
         <v>700</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" s="7">
         <v>700</v>
@@ -1059,7 +1087,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
@@ -1068,13 +1096,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7">
         <v>15717260269</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7">
         <v>13697185795</v>
@@ -1083,7 +1111,7 @@
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="7">
         <v>1400</v>
@@ -1091,7 +1119,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -1100,13 +1128,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7">
         <v>15171093139</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7">
         <v>15549156355</v>
@@ -1115,7 +1143,7 @@
         <v>700</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="7">
         <v>700</v>
@@ -1123,7 +1151,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>44</v>
@@ -1132,13 +1160,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7">
         <v>18872148745</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7">
         <v>15995218243</v>
@@ -1147,7 +1175,7 @@
         <v>700</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="7">
         <v>700</v>
@@ -1155,7 +1183,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>44</v>
@@ -1164,10 +1192,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7">
         <v>18872810657</v>
@@ -1176,7 +1204,7 @@
         <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="7">
         <v>700</v>
@@ -1184,7 +1212,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>44</v>
@@ -1193,13 +1221,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7">
         <v>18807260781</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7">
         <v>15172957077</v>
@@ -1208,7 +1236,7 @@
         <v>700</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="7">
         <v>700</v>
@@ -1216,7 +1244,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>44</v>
@@ -1225,13 +1253,13 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7">
         <v>15071869362</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7">
         <v>13986855762</v>
@@ -1240,7 +1268,7 @@
         <v>700</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="7">
         <v>700</v>
@@ -1248,7 +1276,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>44</v>
@@ -1257,13 +1285,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="7">
         <v>15587656935</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7">
         <v>15926105372</v>
@@ -1272,7 +1300,7 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7">
         <v>700</v>
@@ -1280,7 +1308,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>44</v>
@@ -1289,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7">
         <v>18327434602</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7">
         <v>18621788095</v>
@@ -1304,7 +1332,7 @@
         <v>1400</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="7">
         <v>1400</v>
@@ -1312,22 +1340,22 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="7">
         <v>15707257559</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7">
         <v>13597784302</v>
@@ -1341,22 +1369,22 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7">
         <v>15071882063</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -1367,7 +1395,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>44</v>
@@ -1376,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7">
         <v>18371816849</v>
@@ -1388,7 +1416,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1396,22 +1424,22 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="7">
         <v>15926143991</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7">
         <v>13764023742</v>
@@ -1420,7 +1448,7 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="7">
         <v>1400</v>
@@ -1428,22 +1456,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="7">
         <v>15172947448</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7">
         <v>13477901880</v>
@@ -1452,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="7">
         <v>600</v>
@@ -1567,13 +1595,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
       </c>
       <c r="D36" s="7">
         <v>13997778818</v>
@@ -1587,13 +1615,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="7">
         <v>13235446111</v>
@@ -1607,16 +1635,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E38" s="7">
         <v>1100</v>
@@ -1633,7 +1661,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1641,7 +1669,7 @@
         <v>18872794451</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1649,7 +1677,7 @@
         <v>13235594869</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1657,7 +1685,7 @@
         <v>15171055995</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1665,7 +1693,82 @@
         <v>15172812542</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="7">
+        <v>13695816159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="7">
+        <v>13403065941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="7">
+        <v>15027215465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="7">
+        <v>15071881474</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
   <si>
     <t>姓名</t>
   </si>
@@ -420,6 +420,38 @@
   </si>
   <si>
     <t>预报名的体训学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖跃川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭学才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉湖川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1769,6 +1801,115 @@
       </c>
       <c r="D55" s="7">
         <v>15071881474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="7">
+        <v>15027222685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="7">
+        <v>15717269606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="7">
+        <v>13257258139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="7">
+        <v>13997758186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="7">
+        <v>13593645694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="7">
+        <v>15570505211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="7">
+        <v>15586663670</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
   <si>
     <t>姓名</t>
   </si>
@@ -305,10 +305,6 @@
   </si>
   <si>
     <t>胡成果/李隆鑫，差600元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡成果/李隆鑫，差1300元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -898,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1079,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" s="7">
         <v>600</v>
@@ -1143,7 +1139,7 @@
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="7">
         <v>1400</v>
@@ -1427,7 +1423,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>44</v>
@@ -1448,7 +1444,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1456,13 +1452,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>67</v>
@@ -1477,27 +1473,27 @@
         <v>13764023742</v>
       </c>
       <c r="H21" s="7">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J21" s="7">
-        <v>1400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="7">
         <v>15172947448</v>
@@ -1522,11 +1518,11 @@
     <row r="23" spans="1:11">
       <c r="H23" s="7">
         <f>SUM(H3:H22)</f>
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="J23" s="7">
         <f>SUM(J3:J22)</f>
-        <v>16700</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1627,13 +1623,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
       </c>
       <c r="D36" s="7">
         <v>13997778818</v>
@@ -1647,13 +1643,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7">
         <v>13235446111</v>
@@ -1667,16 +1663,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E38" s="7">
         <v>1100</v>
@@ -1693,7 +1689,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1725,12 +1721,12 @@
         <v>15172812542</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1749,13 +1745,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
       </c>
       <c r="D52" s="7">
         <v>13695816159</v>
@@ -1763,13 +1759,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
         <v>98</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
       </c>
       <c r="D53" s="7">
         <v>13403065941</v>
@@ -1777,13 +1773,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
         <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>99</v>
       </c>
       <c r="D54" s="7">
         <v>15027215465</v>
@@ -1791,13 +1787,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
         <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
       </c>
       <c r="D55" s="7">
         <v>15071881474</v>
@@ -1805,13 +1801,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="7">
         <v>15027222685</v>
@@ -1819,13 +1815,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="7">
         <v>15717269606</v>
@@ -1833,13 +1829,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="7">
         <v>13257258139</v>
@@ -1847,13 +1843,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="7">
         <v>13997758186</v>
@@ -1861,13 +1857,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="7">
         <v>13593645694</v>
@@ -1875,24 +1871,24 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" s="7">
         <v>15570505211</v>
@@ -1900,13 +1896,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" s="7">
         <v>15586663670</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>姓名</t>
   </si>
@@ -448,6 +448,46 @@
   </si>
   <si>
     <t>冉湖川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对一补课生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡美琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80/小时 * 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预报名高中生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18071928889\15071863980</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,17 +887,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -1906,6 +1946,88 @@
       </c>
       <c r="D63" s="7">
         <v>15586663670</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="D69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70">
+        <f>SUM(D68:D69)</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="7">
+        <v>13886752328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
   <si>
     <t>姓名</t>
   </si>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理/数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石老师</t>
   </si>
   <si>
@@ -238,14 +226,6 @@
   </si>
   <si>
     <t>黄诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +570,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -889,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -934,13 +917,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -960,7 +943,7 @@
         <v>18871831827</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3">
         <v>15172852482</v>
@@ -1012,7 +995,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7">
         <v>15570561525</v>
@@ -1033,22 +1016,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="7">
         <v>15171954812</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7">
         <v>15818501395</v>
@@ -1062,16 +1045,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10">
         <v>18727677896</v>
@@ -1091,22 +1074,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7">
         <v>15171095154</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7">
         <v>13971887715</v>
@@ -1115,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J8" s="7">
         <v>600</v>
@@ -1123,7 +1106,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>21</v>
@@ -1132,13 +1115,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7">
         <v>13451024833</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7">
         <v>15549234573</v>
@@ -1147,7 +1130,7 @@
         <v>700</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J9" s="7">
         <v>700</v>
@@ -1155,22 +1138,22 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7">
         <v>15717260269</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7">
         <v>13697185795</v>
@@ -1179,7 +1162,7 @@
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J10" s="7">
         <v>1400</v>
@@ -1187,22 +1170,22 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7">
         <v>15171093139</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7">
         <v>15549156355</v>
@@ -1211,7 +1194,7 @@
         <v>700</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J11" s="7">
         <v>700</v>
@@ -1219,22 +1202,22 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7">
         <v>18872148745</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7">
         <v>15995218243</v>
@@ -1243,7 +1226,7 @@
         <v>700</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J12" s="7">
         <v>700</v>
@@ -1251,19 +1234,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7">
         <v>18872810657</v>
@@ -1272,7 +1255,7 @@
         <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J13" s="7">
         <v>700</v>
@@ -1280,22 +1263,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7">
         <v>18807260781</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7">
         <v>15172957077</v>
@@ -1304,7 +1287,7 @@
         <v>700</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J14" s="7">
         <v>700</v>
@@ -1312,22 +1295,22 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7">
         <v>15071869362</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7">
         <v>13986855762</v>
@@ -1336,7 +1319,7 @@
         <v>700</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J15" s="7">
         <v>700</v>
@@ -1344,22 +1327,22 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7">
         <v>15587656935</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7">
         <v>15926105372</v>
@@ -1368,7 +1351,7 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J16" s="7">
         <v>700</v>
@@ -1376,22 +1359,22 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7">
         <v>18327434602</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7">
         <v>18621788095</v>
@@ -1400,7 +1383,7 @@
         <v>1400</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J17" s="7">
         <v>1400</v>
@@ -1408,22 +1391,22 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7">
         <v>15707257559</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7">
         <v>13597784302</v>
@@ -1437,22 +1420,22 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7">
         <v>15071882063</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -1463,16 +1446,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7">
         <v>18371816849</v>
@@ -1484,7 +1467,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1492,22 +1475,22 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E21" s="7">
         <v>15926143991</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7">
         <v>13764023742</v>
@@ -1516,7 +1499,7 @@
         <v>700</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J21" s="7">
         <v>700</v>
@@ -1524,22 +1507,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E22" s="7">
         <v>15172947448</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7">
         <v>13477901880</v>
@@ -1548,7 +1531,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J22" s="7">
         <v>600</v>
@@ -1623,13 +1606,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
       </c>
       <c r="D34" s="7">
         <v>15172819967</v>
@@ -1643,13 +1626,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
       </c>
       <c r="D35" s="7">
         <v>15172819967</v>
@@ -1663,13 +1646,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D36" s="7">
         <v>13997778818</v>
@@ -1683,13 +1666,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D37" s="7">
         <v>13235446111</v>
@@ -1703,16 +1686,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="7">
         <v>1100</v>
@@ -1727,9 +1710,31 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42">
+        <v>1240</v>
+      </c>
+      <c r="E42" s="12">
+        <v>42448</v>
+      </c>
+    </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1737,7 +1742,7 @@
         <v>18872794451</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1745,7 +1750,7 @@
         <v>13235594869</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1753,7 +1758,7 @@
         <v>15171055995</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1761,12 +1766,12 @@
         <v>15172812542</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1785,13 +1790,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D52" s="7">
         <v>13695816159</v>
@@ -1799,13 +1804,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D53" s="7">
         <v>13403065941</v>
@@ -1813,13 +1818,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D54" s="7">
         <v>15027215465</v>
@@ -1827,13 +1832,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D55" s="7">
         <v>15071881474</v>
@@ -1841,13 +1846,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D56" s="7">
         <v>15027222685</v>
@@ -1855,13 +1860,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D57" s="7">
         <v>15717269606</v>
@@ -1869,13 +1874,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D58" s="7">
         <v>13257258139</v>
@@ -1883,13 +1888,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D59" s="7">
         <v>13997758186</v>
@@ -1897,13 +1902,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D60" s="7">
         <v>13593645694</v>
@@ -1911,24 +1916,24 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D62" s="7">
         <v>15570505211</v>
@@ -1936,56 +1941,21 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D63" s="7">
         <v>15586663670</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="D68">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="D69">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="D70">
-        <f>SUM(D68:D69)</f>
-        <v>1240</v>
-      </c>
-    </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2004,13 +1974,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D75" s="7">
         <v>13886752328</v>
@@ -2018,16 +1988,16 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
   <si>
     <t>姓名</t>
   </si>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡成果/李隆鑫，差600元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李相明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,6 +464,34 @@
   </si>
   <si>
     <t>18071928889\15071863980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +897,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -917,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1098,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="7">
         <v>600</v>
@@ -1162,7 +1186,7 @@
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7">
         <v>1400</v>
@@ -1348,10 +1372,10 @@
         <v>15926105372</v>
       </c>
       <c r="H16" s="7">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="7">
         <v>700</v>
@@ -1446,7 +1470,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>42</v>
@@ -1467,7 +1491,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1475,13 +1499,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
@@ -1507,16 +1531,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="7">
         <v>15172947448</v>
@@ -1539,13 +1563,52 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="7">
+        <v>15586689828</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="7">
+        <v>13593644808</v>
+      </c>
       <c r="H23" s="7">
-        <f>SUM(H3:H22)</f>
-        <v>14300</v>
+        <v>50</v>
       </c>
       <c r="J23" s="7">
-        <f>SUM(J3:J22)</f>
-        <v>16000</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="7">
+        <v>50</v>
+      </c>
+      <c r="J24" s="7">
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1646,13 +1709,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
       </c>
       <c r="D36" s="7">
         <v>13997778818</v>
@@ -1666,13 +1729,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="7">
         <v>13235446111</v>
@@ -1686,16 +1749,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E38" s="7">
         <v>1100</v>
@@ -1712,18 +1775,18 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>108</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
       </c>
       <c r="D42">
         <v>1240</v>
@@ -1734,7 +1797,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1766,12 +1829,12 @@
         <v>15172812542</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1790,13 +1853,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>92</v>
-      </c>
-      <c r="C52" t="s">
-        <v>93</v>
       </c>
       <c r="D52" s="7">
         <v>13695816159</v>
@@ -1804,13 +1867,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
       </c>
       <c r="D53" s="7">
         <v>13403065941</v>
@@ -1818,13 +1881,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" t="s">
-        <v>93</v>
       </c>
       <c r="D54" s="7">
         <v>15027215465</v>
@@ -1832,13 +1895,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
         <v>92</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
       </c>
       <c r="D55" s="7">
         <v>15071881474</v>
@@ -1846,13 +1909,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="7">
         <v>15027222685</v>
@@ -1860,13 +1923,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="7">
         <v>15717269606</v>
@@ -1874,13 +1937,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="7">
         <v>13257258139</v>
@@ -1888,13 +1951,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="7">
         <v>13997758186</v>
@@ -1902,13 +1965,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="7">
         <v>13593645694</v>
@@ -1916,24 +1979,24 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="7">
         <v>15570505211</v>
@@ -1941,13 +2004,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="7">
         <v>15586663670</v>
@@ -1955,7 +2018,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1974,13 +2037,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
         <v>111</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>112</v>
-      </c>
-      <c r="C75" t="s">
-        <v>113</v>
       </c>
       <c r="D75" s="7">
         <v>13886752328</v>
@@ -1988,16 +2051,16 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="136">
   <si>
     <t>姓名</t>
   </si>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +488,66 @@
   </si>
   <si>
     <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张王秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭玉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄羽琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1564,22 +1620,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E23" s="7">
         <v>15586689828</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7">
         <v>13593644808</v>
@@ -1593,22 +1649,106 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
       </c>
       <c r="J24" s="7">
         <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="7">
+        <v>18872817398</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7">
+        <v>15971708966</v>
+      </c>
+      <c r="H25" s="7">
+        <v>100</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="7">
+        <v>13972409178</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1400</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="7">
+        <v>15272242064</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="7">
+        <v>13477256849</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1400</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1400</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1832,12 +1972,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -1865,7 +2005,7 @@
         <v>13695816159</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -1879,7 +2019,7 @@
         <v>13403065941</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -1893,7 +2033,7 @@
         <v>15027215465</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -1907,7 +2047,7 @@
         <v>15071881474</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -1921,7 +2061,7 @@
         <v>15027222685</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -1935,7 +2075,7 @@
         <v>15717269606</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -1949,7 +2089,7 @@
         <v>13257258139</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -1963,7 +2103,7 @@
         <v>13997758186</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -1977,7 +2117,7 @@
         <v>13593645694</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -1988,7 +2128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2002,7 +2142,7 @@
         <v>15570505211</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2014,6 +2154,23 @@
       </c>
       <c r="D63" s="7">
         <v>15586663670</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="7">
+        <v>15272971398</v>
+      </c>
+      <c r="E64">
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2037,13 +2194,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>112</v>
       </c>
       <c r="D75" s="7">
         <v>13886752328</v>
@@ -2051,16 +2208,16 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
   <si>
     <t>姓名</t>
   </si>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差600元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二中同学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +536,18 @@
   </si>
   <si>
     <t>黄羽琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -952,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1175,10 +1183,7 @@
         <v>13971887715</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
+        <v>600</v>
       </c>
       <c r="J8" s="7">
         <v>600</v>
@@ -1620,22 +1625,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E23" s="7">
         <v>15586689828</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7">
         <v>13593644808</v>
@@ -1649,16 +1654,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -1669,22 +1674,22 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E25" s="7">
         <v>18872817398</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7">
         <v>15971708966</v>
@@ -1698,22 +1703,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="E26" s="7">
         <v>13972409178</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>1400</v>
@@ -1724,22 +1729,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="E27" s="7">
         <v>15272242064</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="7">
         <v>13477256849</v>
@@ -1915,18 +1920,18 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
       </c>
       <c r="D42">
         <v>1240</v>
@@ -1937,7 +1942,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1969,12 +1974,12 @@
         <v>15172812542</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1993,13 +1998,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>91</v>
-      </c>
-      <c r="C52" t="s">
-        <v>92</v>
       </c>
       <c r="D52" s="7">
         <v>13695816159</v>
@@ -2007,13 +2012,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
         <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
       </c>
       <c r="D53" s="7">
         <v>13403065941</v>
@@ -2021,13 +2026,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
         <v>91</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
       </c>
       <c r="D54" s="7">
         <v>15027215465</v>
@@ -2035,13 +2040,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
         <v>91</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
       </c>
       <c r="D55" s="7">
         <v>15071881474</v>
@@ -2049,13 +2054,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="7">
         <v>15027222685</v>
@@ -2063,13 +2068,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="7">
         <v>15717269606</v>
@@ -2077,13 +2082,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="7">
         <v>13257258139</v>
@@ -2091,13 +2096,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="7">
         <v>13997758186</v>
@@ -2105,13 +2110,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="7">
         <v>13593645694</v>
@@ -2119,24 +2124,24 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="7">
         <v>15570505211</v>
@@ -2144,13 +2149,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="7">
         <v>15586663670</v>
@@ -2158,13 +2163,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
         <v>133</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
       </c>
       <c r="D64" s="7">
         <v>15272971398</v>
@@ -2173,9 +2178,23 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="7">
+        <v>18371867763</v>
+      </c>
+    </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2194,13 +2213,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
         <v>110</v>
-      </c>
-      <c r="C75" t="s">
-        <v>111</v>
       </c>
       <c r="D75" s="7">
         <v>13886752328</v>
@@ -2208,16 +2227,16 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="143">
   <si>
     <t>姓名</t>
   </si>
@@ -556,6 +556,26 @@
   </si>
   <si>
     <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1753,6 +1773,35 @@
         <v>1400</v>
       </c>
       <c r="J27" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="7">
+        <v>13264920548</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7">
+        <v>13264920548</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1400</v>
+      </c>
+      <c r="J28" s="7">
         <v>1400</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="164">
   <si>
     <t>姓名</t>
   </si>
@@ -472,11 +472,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>彭丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张王秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭玉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄羽琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐露丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨木小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>姚老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彭丽</t>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡艳林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗池锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,139 +648,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张王秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭玉清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄羽琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许文志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐露丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨木小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报名日期</t>
+    <t>方老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王淇贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +697,14 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -683,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +773,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,7 +1077,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1418,7 +1473,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7">
         <v>18807260781</v>
@@ -1450,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7">
         <v>15071869362</v>
@@ -1700,8 +1755,8 @@
       <c r="E23" s="7">
         <v>15586689828</v>
       </c>
-      <c r="F23" t="s">
-        <v>116</v>
+      <c r="F23" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G23" s="7">
         <v>13593644808</v>
@@ -1715,7 +1770,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>113</v>
@@ -1724,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -1735,22 +1790,22 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E25" s="7">
         <v>18872817398</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7">
         <v>15971708966</v>
@@ -1764,22 +1819,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E26" s="7">
         <v>13972409178</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>1400</v>
@@ -1790,22 +1845,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E27" s="7">
         <v>15272242064</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" s="7">
         <v>13477256849</v>
@@ -1819,22 +1874,22 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E28" s="7">
         <v>13264920548</v>
       </c>
-      <c r="F28" t="s">
-        <v>141</v>
+      <c r="F28" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G28" s="7">
         <v>13264920548</v>
@@ -1844,6 +1899,177 @@
       </c>
       <c r="J28" s="7">
         <v>1400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="7">
+        <v>13277535085</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="7">
+        <v>18695045761</v>
+      </c>
+      <c r="H29" s="7">
+        <v>700</v>
+      </c>
+      <c r="J29" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="7">
+        <v>15707259049</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="7">
+        <v>15571887993</v>
+      </c>
+      <c r="H30" s="7">
+        <v>700</v>
+      </c>
+      <c r="J30" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="7">
+        <v>15502782296</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="7">
+        <v>15997729904</v>
+      </c>
+      <c r="H31" s="7">
+        <v>100</v>
+      </c>
+      <c r="J31" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="7">
+        <v>15502782296</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="7">
+        <v>18329097518</v>
+      </c>
+      <c r="H32" s="7">
+        <v>100</v>
+      </c>
+      <c r="J32" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="7">
+        <v>15502782296</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="7">
+        <v>13858492733</v>
+      </c>
+      <c r="H33" s="7">
+        <v>100</v>
+      </c>
+      <c r="J33" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="7">
+        <v>13477230097</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="7">
+        <v>500</v>
+      </c>
+      <c r="J34" s="7">
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1865,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2007,13 +2233,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
         <v>148</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
       </c>
       <c r="D58" s="7">
         <v>15272978373</v>
@@ -2270,13 +2496,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
         <v>131</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>132</v>
-      </c>
-      <c r="C83" t="s">
-        <v>133</v>
       </c>
       <c r="D83" s="7">
         <v>15272971398</v>
@@ -2287,13 +2513,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
         <v>134</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>135</v>
-      </c>
-      <c r="C84" t="s">
-        <v>136</v>
       </c>
       <c r="D84" s="7">
         <v>18371867763</v>
@@ -2301,13 +2527,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
         <v>142</v>
-      </c>
-      <c r="B85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" t="s">
-        <v>144</v>
       </c>
       <c r="D85" s="7">
         <v>15926111797</v>
@@ -2315,13 +2541,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D86" s="7">
         <v>15272249493</v>
@@ -2329,13 +2555,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D87" s="7">
         <v>18371839807</v>
@@ -2362,7 +2588,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="175">
   <si>
     <t>姓名</t>
   </si>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差500元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴翔宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡成果/李隆鑫（返代金券）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷浩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,11 +468,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张王秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭玉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄羽琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐露丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨木小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡艳林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗池锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张王秋</t>
+    <t>方老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王淇贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫（返代金券），已经上过四节课，暑假继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,39 +660,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭玉清</t>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申安福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,99 +684,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄羽琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许文志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐露丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨木小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报名日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
+    <t>邹涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,19 +692,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈恳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡艳林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗池锐</t>
+    <t>黄白雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,19 +700,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王淇贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈少波</t>
+    <t>刘老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1090,7 +1134,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1121,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1331,7 +1375,7 @@
         <v>700</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="7">
         <v>700</v>
@@ -1363,7 +1407,7 @@
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J10" s="7">
         <v>1400</v>
@@ -1395,7 +1439,7 @@
         <v>700</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="7">
         <v>700</v>
@@ -1427,7 +1471,7 @@
         <v>700</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="7">
         <v>700</v>
@@ -1456,7 +1500,7 @@
         <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="7">
         <v>700</v>
@@ -1488,7 +1532,7 @@
         <v>700</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="7">
         <v>700</v>
@@ -1496,7 +1540,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>41</v>
@@ -1520,7 +1564,7 @@
         <v>700</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="7">
         <v>700</v>
@@ -1528,7 +1572,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>41</v>
@@ -1552,7 +1596,7 @@
         <v>700</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="7">
         <v>700</v>
@@ -1560,7 +1604,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>41</v>
@@ -1569,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7">
         <v>18327434602</v>
@@ -1584,7 +1628,7 @@
         <v>1400</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="7">
         <v>1400</v>
@@ -1592,13 +1636,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>9</v>
@@ -1607,7 +1651,7 @@
         <v>15707257559</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7">
         <v>13597784302</v>
@@ -1621,13 +1665,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
@@ -1636,7 +1680,7 @@
         <v>15071882063</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -1647,7 +1691,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>41</v>
@@ -1668,7 +1712,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1676,13 +1720,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>9</v>
@@ -1700,7 +1744,7 @@
         <v>700</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="7">
         <v>700</v>
@@ -1708,16 +1752,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="7">
         <v>15172947448</v>
@@ -1729,11 +1773,9 @@
         <v>13477901880</v>
       </c>
       <c r="H22" s="8">
-        <v>100</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="I22" s="8"/>
       <c r="J22" s="7">
         <v>600</v>
       </c>
@@ -1741,16 +1783,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E23" s="7">
         <v>15586689828</v>
@@ -1770,19 +1812,19 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="H24" s="7">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="J24" s="7">
         <v>700</v>
@@ -1790,28 +1832,28 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="E25" s="7">
         <v>18872817398</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7">
         <v>15971708966</v>
       </c>
       <c r="H25" s="7">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="J25" s="7">
         <v>1300</v>
@@ -1819,22 +1861,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E26" s="7">
         <v>13972409178</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1400</v>
@@ -1845,22 +1887,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E27" s="7">
         <v>15272242064</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G27" s="7">
         <v>13477256849</v>
@@ -1874,16 +1916,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E28" s="7">
         <v>13264920548</v>
@@ -1903,22 +1945,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E29" s="7">
         <v>13277535085</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7">
         <v>18695045761</v>
@@ -1932,22 +1974,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E30" s="7">
         <v>15707259049</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7">
         <v>15571887993</v>
@@ -1961,22 +2003,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E31" s="7">
         <v>15502782296</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G31" s="7">
         <v>15997729904</v>
@@ -1990,25 +2032,25 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="7">
         <v>15502782296</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="7">
-        <v>18329097518</v>
+        <v>157</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -2019,22 +2061,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E33" s="7">
         <v>15502782296</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G33" s="7">
         <v>13858492733</v>
@@ -2048,22 +2090,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E34" s="7">
         <v>13477230097</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>500</v>
@@ -2072,40 +2114,173 @@
         <v>500</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="7">
+        <v>13100764472</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="7">
+        <v>15857673866</v>
+      </c>
+      <c r="H35" s="7">
+        <v>600</v>
+      </c>
+      <c r="J35" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="7">
+        <v>18371821613</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="7">
+        <v>18371807908</v>
+      </c>
+      <c r="H36" s="7">
+        <v>700</v>
+      </c>
+      <c r="J36" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="7">
+        <v>15587656830</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="7">
+        <v>13886752328</v>
+      </c>
+      <c r="H37" s="7">
+        <v>700</v>
+      </c>
+      <c r="J37" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="7">
+        <v>15071863980</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="7">
+        <v>18071928889</v>
+      </c>
+      <c r="H38" s="7">
+        <v>700</v>
+      </c>
+      <c r="J38" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>18</v>
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>150</v>
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="7">
+        <v>200</v>
+      </c>
+      <c r="F50" s="11">
+        <v>42430</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51" s="7">
         <v>200</v>
@@ -2116,16 +2291,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="D52" s="7">
+        <v>15172819967</v>
       </c>
       <c r="E52" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F52" s="11">
         <v>42430</v>
@@ -2133,7 +2311,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
@@ -2153,222 +2331,216 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D54" s="7">
-        <v>15172819967</v>
+        <v>13997778818</v>
       </c>
       <c r="E54" s="7">
         <v>300</v>
       </c>
       <c r="F54" s="11">
-        <v>42430</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="7">
-        <v>13997778818</v>
+        <v>13235446111</v>
       </c>
       <c r="E55" s="7">
         <v>300</v>
       </c>
       <c r="F55" s="11">
-        <v>42436</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="7">
-        <v>13235446111</v>
+      <c r="D56" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E56" s="7">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="F56" s="11">
-        <v>42437</v>
+        <v>42444</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="7">
+        <v>15272978373</v>
       </c>
       <c r="E57" s="7">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="11">
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="7">
-        <v>15272978373</v>
-      </c>
-      <c r="E58" s="7">
-        <v>300</v>
-      </c>
-      <c r="F58" s="11">
         <v>42450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="C60" t="s">
         <v>104</v>
       </c>
-      <c r="B61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61">
+      <c r="D60">
         <v>1240</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E60" s="12">
         <v>42448</v>
       </c>
     </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>87</v>
+      <c r="A63" s="7">
+        <v>18872794451</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="7">
-        <v>18872794451</v>
+        <v>13235594869</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="7">
-        <v>13235594869</v>
+        <v>15171055995</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="7">
-        <v>15171055995</v>
+        <v>15172812542</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="7">
-        <v>15172812542</v>
-      </c>
-      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>2</v>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="7">
+        <v>13695816159</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
         <v>88</v>
       </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>90</v>
-      </c>
       <c r="D71" s="7">
-        <v>13695816159</v>
+        <v>13403065941</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D72" s="7">
-        <v>13403065941</v>
+        <v>15027215465</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D73" s="7">
-        <v>15027215465</v>
+        <v>15071881474</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2376,122 +2548,125 @@
         <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74" s="7">
-        <v>15071881474</v>
+        <v>15027222685</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D75" s="7">
-        <v>15027222685</v>
+        <v>15717269606</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="7">
-        <v>15717269606</v>
+        <v>13257258139</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="7">
-        <v>13257258139</v>
+        <v>13997758186</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" s="7">
-        <v>13997758186</v>
+        <v>13593645694</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="7">
-        <v>13593645694</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D80" s="7">
+        <v>15570505211</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D81" s="7">
-        <v>15570505211</v>
+        <v>15586663670</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D82" s="7">
-        <v>15586663670</v>
+        <v>15272971398</v>
+      </c>
+      <c r="E82">
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2505,24 +2680,21 @@
         <v>132</v>
       </c>
       <c r="D83" s="7">
-        <v>15272971398</v>
-      </c>
-      <c r="E83">
-        <v>1000</v>
+        <v>18371867763</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D84" s="7">
-        <v>18371867763</v>
+        <v>15926111797</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2530,88 +2702,74 @@
         <v>140</v>
       </c>
       <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s">
         <v>141</v>
       </c>
-      <c r="C85" t="s">
-        <v>142</v>
-      </c>
       <c r="D85" s="7">
-        <v>15926111797</v>
+        <v>15272249493</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
         <v>141</v>
       </c>
-      <c r="C86" t="s">
-        <v>144</v>
-      </c>
       <c r="D86" s="7">
-        <v>15272249493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>145</v>
-      </c>
-      <c r="B87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="7">
         <v>18371839807</v>
       </c>
     </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="92" spans="1:5">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>2</v>
+      <c r="D93" s="7">
+        <v>13886752328</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D94" s="7">
-        <v>13886752328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="176">
   <si>
     <t>姓名</t>
   </si>
@@ -705,6 +705,10 @@
   </si>
   <si>
     <t>李林欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱珊珊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2429,6 +2433,14 @@
       </c>
       <c r="E60" s="12">
         <v>42448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="7">
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="179">
   <si>
     <t>姓名</t>
   </si>
@@ -709,6 +709,18 @@
   </si>
   <si>
     <t>朱珊珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李静怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2413,336 +2425,93 @@
         <v>42450</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="7">
+        <v>15027208041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B78" t="s">
         <v>103</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C78" t="s">
         <v>104</v>
       </c>
-      <c r="D60">
+      <c r="D78">
         <v>1240</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E78" s="12">
         <v>42448</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C79" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="7">
+    <row r="86" spans="1:4">
+      <c r="A86" s="7">
         <v>18872794451</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B86" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="7">
+    <row r="87" spans="1:4">
+      <c r="A87" s="7">
         <v>13235594869</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B87" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="7">
+    <row r="88" spans="1:4">
+      <c r="A88" s="7">
         <v>15171055995</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B88" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="7">
+    <row r="89" spans="1:4">
+      <c r="A89" s="7">
         <v>15172812542</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B89" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="7">
-        <v>13695816159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="7">
-        <v>13403065941</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="7">
-        <v>15027215465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="7">
-        <v>15071881474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="7">
-        <v>15027222685</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="7">
-        <v>15717269606</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" s="7">
-        <v>13257258139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="7">
-        <v>13997758186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="7">
-        <v>13593645694</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="7">
-        <v>15570505211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="7">
-        <v>15586663670</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="7">
-        <v>15272971398</v>
-      </c>
-      <c r="E82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="7">
-        <v>18371867763</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="7">
-        <v>15926111797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="7">
-        <v>15272249493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" s="7">
-        <v>18371839807</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -2756,31 +2525,288 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="7">
+        <v>13695816159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="7">
+        <v>13403065941</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="7">
+        <v>15027215465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="7">
+        <v>15071881474</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="7">
+        <v>15027222685</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="7">
+        <v>15717269606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="7">
+        <v>13257258139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="7">
+        <v>13997758186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="7">
+        <v>13593645694</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="7">
+        <v>15570505211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="7">
+        <v>15586663670</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" s="7">
+        <v>15272971398</v>
+      </c>
+      <c r="E105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="7">
+        <v>18371867763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="7">
+        <v>15926111797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="7">
+        <v>15272249493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="7">
+        <v>18371839807</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>126</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B116" t="s">
         <v>106</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C116" t="s">
         <v>107</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D116" s="7">
         <v>13886752328</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
         <v>108</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B117" t="s">
         <v>106</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C117" t="s">
         <v>107</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D117" s="7" t="s">
         <v>109</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="173">
   <si>
     <t>姓名</t>
   </si>
@@ -428,7 +428,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预报名高中生</t>
+    <t>付慧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,19 +436,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18071928889\15071863980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付慧</t>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张王秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,15 +460,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张王秋</t>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,35 +484,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>谭玉清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1134,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1728,7 +1704,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1799,16 +1775,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E23" s="7">
         <v>15586689828</v>
@@ -1828,10 +1804,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -1848,22 +1824,22 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E25" s="7">
         <v>18872817398</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7">
         <v>15971708966</v>
@@ -1877,22 +1853,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E26" s="7">
         <v>13972409178</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>1400</v>
@@ -1903,22 +1879,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E27" s="7">
         <v>15272242064</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G27" s="7">
         <v>13477256849</v>
@@ -1932,16 +1908,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E28" s="7">
         <v>13264920548</v>
@@ -1961,22 +1937,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E29" s="7">
         <v>13277535085</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7">
         <v>18695045761</v>
@@ -1990,22 +1966,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E30" s="7">
         <v>15707259049</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G30" s="7">
         <v>15571887993</v>
@@ -2019,22 +1995,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E31" s="7">
         <v>15502782296</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G31" s="7">
         <v>15997729904</v>
@@ -2048,25 +2024,25 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E32" s="7">
         <v>15502782296</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -2077,22 +2053,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E33" s="7">
         <v>15502782296</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G33" s="7">
         <v>13858492733</v>
@@ -2106,22 +2082,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E34" s="7">
         <v>13477230097</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H34" s="7">
         <v>500</v>
@@ -2132,22 +2108,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E35" s="7">
         <v>13100764472</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G35" s="7">
         <v>15857673866</v>
@@ -2161,22 +2137,22 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E36" s="7">
         <v>18371821613</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G36" s="7">
         <v>18371807908</v>
@@ -2190,22 +2166,22 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E37" s="7">
         <v>15587656830</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G37" s="7">
         <v>13886752328</v>
@@ -2219,22 +2195,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E38" s="7">
         <v>15071863980</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G38" s="7">
         <v>18071928889</v>
@@ -2265,10 +2241,10 @@
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2407,13 +2383,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D57" s="7">
         <v>15272978373</v>
@@ -2427,13 +2403,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D58" s="7">
         <v>15027208041</v>
@@ -2463,7 +2439,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C79" s="7">
         <v>600</v>
@@ -2692,13 +2668,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D105" s="7">
         <v>15272971398</v>
@@ -2709,13 +2685,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D106" s="7">
         <v>18371867763</v>
@@ -2723,13 +2699,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C107" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D107" s="7">
         <v>15926111797</v>
@@ -2737,13 +2713,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D108" s="7">
         <v>15272249493</v>
@@ -2751,63 +2727,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D109" s="7">
         <v>18371839807</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C116" t="s">
-        <v>107</v>
-      </c>
-      <c r="D116" s="7">
-        <v>13886752328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C117" t="s">
-        <v>107</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2441,16 +2441,17 @@
       <c r="A79" t="s">
         <v>169</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="7"/>
+      <c r="D79">
         <v>600</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="7">
         <v>18872794451</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="7">
         <v>13235594869</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="7">
         <v>15171055995</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="7">
         <v>15172812542</v>
       </c>
@@ -2482,12 +2483,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2514,8 +2515,11 @@
       <c r="D93" s="7">
         <v>13695816159</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -2528,8 +2532,11 @@
       <c r="D94" s="7">
         <v>13403065941</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>15027215465</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -2555,6 +2562,9 @@
       </c>
       <c r="D96" s="7">
         <v>15071881474</v>
+      </c>
+      <c r="E96">
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2584,6 +2594,9 @@
       <c r="D98" s="7">
         <v>15717269606</v>
       </c>
+      <c r="E98">
+        <v>1000</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
@@ -2612,6 +2625,9 @@
       <c r="D100" s="7">
         <v>13997758186</v>
       </c>
+      <c r="E100">
+        <v>1000</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -2710,6 +2726,9 @@
       <c r="D107" s="7">
         <v>15926111797</v>
       </c>
+      <c r="E107">
+        <v>1000</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
@@ -2723,6 +2742,9 @@
       </c>
       <c r="D108" s="7">
         <v>15272249493</v>
+      </c>
+      <c r="E108">
+        <v>1000</v>
       </c>
     </row>
     <row r="109" spans="1:5">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2759,6 +2759,9 @@
       </c>
       <c r="D109" s="7">
         <v>18371839807</v>
+      </c>
+      <c r="E109">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2610,6 +2610,9 @@
       </c>
       <c r="D99" s="7">
         <v>13257258139</v>
+      </c>
+      <c r="E99">
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:5">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="170">
   <si>
     <t>姓名</t>
   </si>
@@ -298,18 +298,6 @@
   </si>
   <si>
     <t>应缴费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1110,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1157,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>27</v>
@@ -1399,7 +1387,7 @@
         <v>1400</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" s="7">
         <v>1400</v>
@@ -1704,7 +1692,7 @@
         <v>700</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J20" s="7">
         <v>700</v>
@@ -1775,16 +1763,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="E23" s="7">
         <v>15586689828</v>
@@ -1804,10 +1792,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
@@ -1824,22 +1812,22 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="7">
         <v>18872817398</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7">
         <v>15971708966</v>
@@ -1853,22 +1841,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E26" s="7">
         <v>13972409178</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>1400</v>
@@ -1879,22 +1867,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="7">
         <v>15272242064</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G27" s="7">
         <v>13477256849</v>
@@ -1908,16 +1896,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="E28" s="7">
         <v>13264920548</v>
@@ -1937,22 +1925,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E29" s="7">
         <v>13277535085</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7">
         <v>18695045761</v>
@@ -1966,22 +1954,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E30" s="7">
         <v>15707259049</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G30" s="7">
         <v>15571887993</v>
@@ -1995,22 +1983,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" s="7">
         <v>15502782296</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G31" s="7">
         <v>15997729904</v>
@@ -2024,25 +2012,25 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E32" s="7">
         <v>15502782296</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -2053,22 +2041,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E33" s="7">
         <v>15502782296</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G33" s="7">
         <v>13858492733</v>
@@ -2082,22 +2070,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E34" s="7">
         <v>13477230097</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7">
         <v>500</v>
@@ -2108,22 +2096,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E35" s="7">
         <v>13100764472</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G35" s="7">
         <v>15857673866</v>
@@ -2137,22 +2125,22 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E36" s="7">
         <v>18371821613</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G36" s="7">
         <v>18371807908</v>
@@ -2166,22 +2154,22 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E37" s="7">
         <v>15587656830</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G37" s="7">
         <v>13886752328</v>
@@ -2195,22 +2183,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E38" s="7">
         <v>15071863980</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G38" s="7">
         <v>18071928889</v>
@@ -2241,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2326,180 +2314,177 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
         <v>74</v>
       </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
       <c r="D54" s="7">
-        <v>13997778818</v>
+        <v>13235446111</v>
       </c>
       <c r="E54" s="7">
         <v>300</v>
       </c>
       <c r="F54" s="11">
-        <v>42436</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="7">
-        <v>13235446111</v>
-      </c>
       <c r="E55" s="7">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="F55" s="11">
-        <v>42437</v>
+        <v>42444</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>80</v>
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="7">
+        <v>15272978373</v>
       </c>
       <c r="E56" s="7">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F56" s="11">
-        <v>42444</v>
+        <v>42450</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D57" s="7">
-        <v>15272978373</v>
-      </c>
-      <c r="E57" s="7">
-        <v>300</v>
-      </c>
-      <c r="F57" s="11">
-        <v>42450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="7">
         <v>15027208041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
         <v>101</v>
+      </c>
+      <c r="D77">
+        <v>1240</v>
+      </c>
+      <c r="E77" s="12">
+        <v>42448</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" t="s">
-        <v>104</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C78" s="7"/>
       <c r="D78">
-        <v>1240</v>
-      </c>
-      <c r="E78" s="12">
-        <v>42448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79">
         <v>600</v>
       </c>
     </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>85</v>
+      <c r="A85" s="7">
+        <v>18872794451</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="7">
-        <v>18872794451</v>
+        <v>13235594869</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="7">
-        <v>13235594869</v>
+        <v>15171055995</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7">
-        <v>15171055995</v>
+        <v>15172812542</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="7">
-        <v>15172812542</v>
-      </c>
-      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>2</v>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="7">
+        <v>13695816159</v>
+      </c>
+      <c r="E92">
+        <v>1000</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2507,13 +2492,13 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D93" s="7">
-        <v>13695816159</v>
+        <v>13403065941</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -2521,78 +2506,78 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D94" s="7">
-        <v>13403065941</v>
-      </c>
-      <c r="E94">
-        <v>1000</v>
+        <v>15027215465</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D95" s="7">
-        <v>15027215465</v>
+        <v>15071881474</v>
+      </c>
+      <c r="E95">
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D96" s="7">
-        <v>15071881474</v>
-      </c>
-      <c r="E96">
-        <v>1000</v>
+        <v>15027222685</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D97" s="7">
-        <v>15027222685</v>
+        <v>15717269606</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D98" s="7">
-        <v>15717269606</v>
+        <v>13257258139</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -2600,16 +2585,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D99" s="7">
-        <v>13257258139</v>
+        <v>13997758186</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -2617,72 +2602,72 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D100" s="7">
-        <v>13997758186</v>
-      </c>
-      <c r="E100">
-        <v>1000</v>
+        <v>13593645694</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="7">
-        <v>13593645694</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="D102" s="7">
+        <v>15570505211</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D103" s="7">
-        <v>15570505211</v>
+        <v>15586663670</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D104" s="7">
-        <v>15586663670</v>
+        <v>15272971398</v>
+      </c>
+      <c r="E104">
+        <v>1000</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2696,24 +2681,24 @@
         <v>123</v>
       </c>
       <c r="D105" s="7">
-        <v>15272971398</v>
-      </c>
-      <c r="E105">
-        <v>1000</v>
+        <v>18371867763</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D106" s="7">
-        <v>18371867763</v>
+        <v>15926111797</v>
+      </c>
+      <c r="E106">
+        <v>1000</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2721,13 +2706,13 @@
         <v>131</v>
       </c>
       <c r="B107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" t="s">
         <v>132</v>
       </c>
-      <c r="C107" t="s">
-        <v>133</v>
-      </c>
       <c r="D107" s="7">
-        <v>15926111797</v>
+        <v>15272249493</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -2735,35 +2720,18 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
         <v>132</v>
       </c>
-      <c r="C108" t="s">
-        <v>135</v>
-      </c>
       <c r="D108" s="7">
-        <v>15272249493</v>
+        <v>18371839807</v>
       </c>
       <c r="E108">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>136</v>
-      </c>
-      <c r="B109" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="7">
-        <v>18371839807</v>
-      </c>
-      <c r="E109">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2682,6 +2682,9 @@
       </c>
       <c r="D105" s="7">
         <v>18371867763</v>
+      </c>
+      <c r="E105">
+        <v>1000</v>
       </c>
     </row>
     <row r="106" spans="1:5">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
   <si>
     <t>姓名</t>
   </si>
@@ -301,379 +301,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李朝扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾德茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预报名的体训学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖跃川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭学才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉湖川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对一补课生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡美琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80/小时 * 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张王秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭玉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄羽琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐露丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨木小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡艳林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫（返代金券），已经上过四节课，暑假继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申安福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱珊珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李静怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠泉峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨江富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李朝扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾德茜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预报名的体训学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖跃川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭学才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冉湖川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一对一补课生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡美琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80/小时 * 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张王秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭玉清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄羽琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许文志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐露丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榨木小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报名日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈恳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡艳林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈少波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡成果/李隆鑫（返代金券），已经上过四节课，暑假继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申安福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱珊珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李静怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞠泉峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +731,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -748,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +802,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1588,7 +1610,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1659,16 +1681,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E20" s="5">
         <v>15586689828</v>
@@ -1688,10 +1710,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
@@ -1708,22 +1730,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E22" s="5">
         <v>18872817398</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="5">
         <v>15971708966</v>
@@ -1737,22 +1759,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E23" s="5">
         <v>13972409178</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="5">
         <v>1400</v>
@@ -1763,22 +1785,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E24" s="5">
         <v>15272242064</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="5">
         <v>13477256849</v>
@@ -1792,16 +1814,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E25" s="5">
         <v>13264920548</v>
@@ -1821,22 +1843,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E26" s="5">
         <v>13277535085</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="5">
         <v>18695045761</v>
@@ -1850,22 +1872,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="5">
         <v>15707259049</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="5">
         <v>15571887993</v>
@@ -1879,22 +1901,22 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -1908,22 +1930,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="5">
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -1934,22 +1956,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -1963,22 +1985,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -1992,22 +2014,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2021,22 +2043,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2050,16 +2072,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>
@@ -2087,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2209,13 +2231,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
         <v>124</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>126</v>
       </c>
       <c r="D51" s="5">
         <v>15272978373</v>
@@ -2229,13 +2251,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
         <v>154</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>155</v>
-      </c>
-      <c r="C52" t="s">
-        <v>156</v>
       </c>
       <c r="D52" s="5">
         <v>15027208041</v>
@@ -2243,18 +2265,18 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
         <v>89</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>90</v>
-      </c>
-      <c r="C72" t="s">
-        <v>91</v>
       </c>
       <c r="D72">
         <v>1240</v>
@@ -2265,7 +2287,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73">
@@ -2311,7 +2333,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2329,14 +2351,14 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" t="s">
+      <c r="A87" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
         <v>73</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>75</v>
       </c>
       <c r="D87" s="5">
         <v>13695816159</v>
@@ -2346,14 +2368,14 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>76</v>
+      <c r="A88" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="s">
         <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>75</v>
       </c>
       <c r="D88" s="5">
         <v>13403065941</v>
@@ -2364,27 +2386,27 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
         <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>75</v>
       </c>
       <c r="D89" s="5">
         <v>15027215465</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>78</v>
+      <c r="A90" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
         <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>75</v>
       </c>
       <c r="D90" s="5">
         <v>15071881474</v>
@@ -2394,14 +2416,14 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>80</v>
+      <c r="A91" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="5">
         <v>15027222685</v>
@@ -2411,14 +2433,14 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>81</v>
+      <c r="A92" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="5">
         <v>15717269606</v>
@@ -2428,14 +2450,14 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>82</v>
+      <c r="A93" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="5">
         <v>13257258139</v>
@@ -2445,14 +2467,14 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>83</v>
+      <c r="A94" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" s="5">
         <v>13997758186</v>
@@ -2463,27 +2485,27 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" s="5">
         <v>13593645694</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>85</v>
+      <c r="A96" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96" s="5">
         <v>13403028896</v>
@@ -2494,13 +2516,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="5">
         <v>15570505211</v>
@@ -2508,13 +2530,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D98" s="5">
         <v>15586663670</v>
@@ -2522,13 +2544,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>109</v>
-      </c>
-      <c r="C99" t="s">
-        <v>110</v>
       </c>
       <c r="D99" s="5">
         <v>15272971398</v>
@@ -2538,14 +2560,14 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="A100" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
         <v>111</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>112</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
       </c>
       <c r="D100" s="5">
         <v>18371867763</v>
@@ -2555,14 +2577,14 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" t="s">
+      <c r="A101" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
         <v>118</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>119</v>
-      </c>
-      <c r="C101" t="s">
-        <v>120</v>
       </c>
       <c r="D101" s="5">
         <v>15926111797</v>
@@ -2572,14 +2594,14 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
+      <c r="A102" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
         <v>121</v>
-      </c>
-      <c r="B102" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" t="s">
-        <v>122</v>
       </c>
       <c r="D102" s="5">
         <v>15272249493</v>
@@ -2589,14 +2611,14 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>123</v>
+      <c r="A103" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D103" s="5">
         <v>18371839807</v>
@@ -2606,14 +2628,14 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" t="s">
+      <c r="A104" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
         <v>157</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>158</v>
-      </c>
-      <c r="C104" t="s">
-        <v>159</v>
       </c>
       <c r="D104" s="5">
         <v>18672250682</v>
@@ -2624,13 +2646,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
         <v>164</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>165</v>
-      </c>
-      <c r="C105" t="s">
-        <v>166</v>
       </c>
       <c r="D105" s="3">
         <v>18871831827</v>
@@ -2647,13 +2669,30 @@
         <v>5</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="8">
         <v>18727677896</v>
       </c>
       <c r="E106">
         <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" s="8">
+        <v>18807264185</v>
+      </c>
+      <c r="E107">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
   <si>
     <t>姓名</t>
   </si>
@@ -686,6 +686,10 @@
   </si>
   <si>
     <t>王鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经上过8节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1242,6 +1246,9 @@
       </c>
       <c r="H5" s="5">
         <v>600</v>
+      </c>
+      <c r="I5" t="s">
+        <v>170</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="169">
   <si>
     <t>姓名</t>
   </si>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈伟玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1128,7 +1120,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1154,33 +1146,33 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="5">
         <v>18871821756</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5">
         <v>13958684076</v>
@@ -1194,22 +1186,22 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5">
         <v>15570561525</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6">
         <v>17768307585</v>
@@ -1224,13 +1216,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1239,7 +1231,7 @@
         <v>15171095154</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5">
         <v>13971887715</v>
@@ -1248,7 +1240,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1256,22 +1248,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
         <v>13451024833</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5">
         <v>15549234573</v>
@@ -1280,7 +1272,7 @@
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="5">
         <v>700</v>
@@ -1288,22 +1280,22 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
         <v>15717260269</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5">
         <v>13697185795</v>
@@ -1312,7 +1304,7 @@
         <v>1400</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="5">
         <v>1400</v>
@@ -1320,22 +1312,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5">
         <v>15171093139</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5">
         <v>15549156355</v>
@@ -1344,7 +1336,7 @@
         <v>700</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="5">
         <v>700</v>
@@ -1352,13 +1344,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -1367,7 +1359,7 @@
         <v>18872148745</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5">
         <v>15995218243</v>
@@ -1376,7 +1368,7 @@
         <v>700</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J9" s="5">
         <v>700</v>
@@ -1384,19 +1376,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5">
         <v>18872810657</v>
@@ -1405,7 +1397,7 @@
         <v>700</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J10" s="5">
         <v>700</v>
@@ -1413,13 +1405,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -1428,7 +1420,7 @@
         <v>18807260781</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5">
         <v>15172957077</v>
@@ -1437,7 +1429,7 @@
         <v>700</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11" s="5">
         <v>700</v>
@@ -1445,13 +1437,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>7</v>
@@ -1460,7 +1452,7 @@
         <v>15071869362</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="5">
         <v>13986855762</v>
@@ -1469,7 +1461,7 @@
         <v>700</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5">
         <v>700</v>
@@ -1477,13 +1469,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>7</v>
@@ -1492,7 +1484,7 @@
         <v>15587656935</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="5">
         <v>15926105372</v>
@@ -1501,7 +1493,7 @@
         <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="5">
         <v>700</v>
@@ -1509,22 +1501,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5">
         <v>18327434602</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5">
         <v>18621788095</v>
@@ -1533,7 +1525,7 @@
         <v>1400</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14" s="5">
         <v>1400</v>
@@ -1541,13 +1533,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>7</v>
@@ -1556,7 +1548,7 @@
         <v>15707257559</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
         <v>13597784302</v>
@@ -1570,13 +1562,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>7</v>
@@ -1585,7 +1577,7 @@
         <v>15071882063</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="5">
         <v>700</v>
@@ -1596,13 +1588,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -1617,7 +1609,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1625,13 +1617,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>7</v>
@@ -1640,7 +1632,7 @@
         <v>15926143991</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" s="5">
         <v>13764023742</v>
@@ -1649,7 +1641,7 @@
         <v>700</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="5">
         <v>700</v>
@@ -1657,22 +1649,22 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E19" s="5">
         <v>15172947448</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="5">
         <v>13477901880</v>
@@ -1688,22 +1680,22 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E20" s="5">
         <v>15586689828</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5">
         <v>13593644808</v>
@@ -1717,16 +1709,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="5">
         <v>700</v>
@@ -1737,22 +1729,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E22" s="5">
         <v>18872817398</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22" s="5">
         <v>15971708966</v>
@@ -1766,22 +1758,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E23" s="5">
         <v>13972409178</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H23" s="5">
         <v>1400</v>
@@ -1792,22 +1784,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E24" s="5">
         <v>15272242064</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G24" s="5">
         <v>13477256849</v>
@@ -1821,22 +1813,22 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E25" s="5">
         <v>13264920548</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="5">
         <v>13264920548</v>
@@ -1850,22 +1842,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="E26" s="5">
         <v>13277535085</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G26" s="5">
         <v>18695045761</v>
@@ -1879,22 +1871,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27" s="5">
         <v>15707259049</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G27" s="5">
         <v>15571887993</v>
@@ -1908,22 +1900,22 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -1937,22 +1929,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="5">
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -1963,22 +1955,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -1992,22 +1984,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2021,22 +2013,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2050,22 +2042,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2079,16 +2071,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>
@@ -2099,7 +2091,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2116,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2141,16 +2133,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D46" s="5">
+        <v>15172819967</v>
       </c>
       <c r="E46" s="5">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F46" s="9">
         <v>42430</v>
@@ -2158,19 +2153,19 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
         <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
       </c>
       <c r="D47" s="5">
         <v>15172819967</v>
       </c>
       <c r="E47" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F47" s="9">
         <v>42430</v>
@@ -2178,231 +2173,228 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5">
-        <v>15172819967</v>
+        <v>13235446111</v>
       </c>
       <c r="E48" s="5">
         <v>300</v>
       </c>
       <c r="F48" s="9">
-        <v>42430</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="5">
-        <v>13235446111</v>
+      <c r="D49" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E49" s="5">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="9">
-        <v>42437</v>
+        <v>42444</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>67</v>
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="5">
+        <v>15272978373</v>
       </c>
       <c r="E50" s="5">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F50" s="9">
-        <v>42444</v>
+        <v>42450</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D51" s="5">
-        <v>15272978373</v>
-      </c>
-      <c r="E51" s="5">
-        <v>300</v>
-      </c>
-      <c r="F51" s="9">
-        <v>42450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="5">
         <v>15027208041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
         <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71">
+        <v>1240</v>
+      </c>
+      <c r="E71" s="10">
+        <v>42448</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C72" s="5"/>
       <c r="D72">
-        <v>1240</v>
-      </c>
-      <c r="E72" s="10">
-        <v>42448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73">
         <v>600</v>
       </c>
     </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>72</v>
+      <c r="A79" s="5">
+        <v>18872794451</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5">
-        <v>18872794451</v>
+        <v>13235594869</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5">
-        <v>13235594869</v>
+        <v>15171055995</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5">
-        <v>15171055995</v>
+        <v>15172812542</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="5">
-        <v>15172812542</v>
-      </c>
-      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>2</v>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="5">
+        <v>13695816159</v>
+      </c>
+      <c r="E86">
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="11" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D87" s="5">
-        <v>13695816159</v>
+        <v>13403065941</v>
       </c>
       <c r="E87">
         <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="11" t="s">
+      <c r="A88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="5">
+        <v>15027215465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" t="s">
-        <v>74</v>
-      </c>
-      <c r="D88" s="5">
-        <v>13403065941</v>
-      </c>
-      <c r="E88">
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="5">
+        <v>15071881474</v>
+      </c>
+      <c r="E89">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="5">
-        <v>15027215465</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2410,13 +2402,13 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D90" s="5">
-        <v>15071881474</v>
+        <v>15027222685</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -2424,16 +2416,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D91" s="5">
-        <v>15027222685</v>
+        <v>15717269606</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -2441,16 +2433,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D92" s="5">
-        <v>15717269606</v>
+        <v>13257258139</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -2458,143 +2450,143 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D93" s="5">
-        <v>13257258139</v>
+        <v>13997758186</v>
       </c>
       <c r="E93">
         <v>1000</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="11" t="s">
-        <v>82</v>
+      <c r="A94" t="s">
+        <v>81</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D94" s="5">
-        <v>13997758186</v>
-      </c>
-      <c r="E94">
-        <v>1000</v>
+        <v>13593645694</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>83</v>
+      <c r="A95" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D95" s="5">
-        <v>13593645694</v>
+        <v>13403028896</v>
+      </c>
+      <c r="E95">
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="11" t="s">
-        <v>84</v>
+      <c r="A96" t="s">
+        <v>83</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D96" s="5">
-        <v>13403028896</v>
-      </c>
-      <c r="E96">
-        <v>1000</v>
+        <v>15570505211</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D97" s="5">
-        <v>15570505211</v>
+        <v>15586663670</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D98" s="5">
-        <v>15586663670</v>
+        <v>15272971398</v>
+      </c>
+      <c r="E98">
+        <v>1000</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>107</v>
+      <c r="A99" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D99" s="5">
-        <v>15272971398</v>
+        <v>18371867763</v>
       </c>
       <c r="E99">
         <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="11" t="s">
-        <v>110</v>
+      <c r="A100" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D100" s="5">
-        <v>18371867763</v>
+        <v>15926111797</v>
       </c>
       <c r="E100">
         <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="12" t="s">
-        <v>117</v>
+      <c r="A101" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="5">
-        <v>15926111797</v>
+        <v>15272249493</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -2605,13 +2597,13 @@
         <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D102" s="5">
-        <v>15272249493</v>
+        <v>18371839807</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -2619,86 +2611,69 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="11" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D103" s="5">
-        <v>18371839807</v>
+        <v>18672250682</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="11" t="s">
-        <v>156</v>
+      <c r="A104" t="s">
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
-      </c>
-      <c r="D104" s="5">
-        <v>18672250682</v>
+        <v>163</v>
+      </c>
+      <c r="D104" s="3">
+        <v>18871831827</v>
       </c>
       <c r="E104">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>163</v>
-      </c>
-      <c r="B105" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" t="s">
-        <v>165</v>
-      </c>
-      <c r="D105" s="3">
-        <v>18871831827</v>
+        <v>27</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" s="8">
+        <v>18727677896</v>
       </c>
       <c r="E105">
         <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>74</v>
+      <c r="A106" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
       </c>
       <c r="D106" s="8">
-        <v>18727677896</v>
+        <v>18807264185</v>
       </c>
       <c r="E106">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" s="8">
-        <v>18807264185</v>
-      </c>
-      <c r="E107">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F45" s="9">
         <v>42430</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="171">
   <si>
     <t>姓名</t>
   </si>
@@ -682,6 +682,14 @@
   </si>
   <si>
     <t>已经上过8节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2245,12 +2253,12 @@
         <v>15027208041</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2266,8 +2274,11 @@
       <c r="E71" s="10">
         <v>42448</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -2275,13 +2286,16 @@
       <c r="D72">
         <v>600</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="5">
         <v>18872794451</v>
       </c>
@@ -2289,7 +2303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="5">
         <v>13235594869</v>
       </c>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
   <si>
     <t>姓名</t>
   </si>
@@ -690,6 +690,26 @@
   </si>
   <si>
     <t>两次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧晓将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2094,6 +2114,35 @@
         <v>700</v>
       </c>
       <c r="J34" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="5">
+        <v>18872801072</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="5">
+        <v>13310530582</v>
+      </c>
+      <c r="H35" s="5">
+        <v>700</v>
+      </c>
+      <c r="J35" s="5">
         <v>700</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -557,10 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡成果/李隆鑫（返代金券），已经上过四节课，暑假继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +706,10 @@
   </si>
   <si>
     <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫（返代金券）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1268,7 +1268,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1637,7 +1637,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1983,22 +1983,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -2012,22 +2012,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2041,22 +2041,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2070,22 +2070,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>
@@ -2119,22 +2119,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2290,13 +2290,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>152</v>
-      </c>
-      <c r="C51" t="s">
-        <v>153</v>
       </c>
       <c r="D51" s="5">
         <v>15027208041</v>
@@ -2324,19 +2324,19 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2397,7 +2397,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
         <v>71</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" t="s">
         <v>154</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>155</v>
-      </c>
-      <c r="C103" t="s">
-        <v>156</v>
       </c>
       <c r="D103" s="5">
         <v>18672250682</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" t="s">
         <v>161</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>162</v>
-      </c>
-      <c r="C104" t="s">
-        <v>163</v>
       </c>
       <c r="D104" s="3">
         <v>18871831827</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" t="s">
         <v>164</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>165</v>
-      </c>
-      <c r="C106" t="s">
-        <v>166</v>
       </c>
       <c r="D106" s="8">
         <v>18807264185</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2318,7 +2318,7 @@
         <v>88</v>
       </c>
       <c r="D71">
-        <v>1240</v>
+        <v>2520</v>
       </c>
       <c r="E71" s="10">
         <v>42448</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -533,183 +533,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>胡艳林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申安福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱珊珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李静怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠泉峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨江富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经上过8节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧晓将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫（返代金券）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>陈恳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡艳林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈少波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申安福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱珊珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李静怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞠泉峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨江富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经上过8节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧晓将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡成果/李隆鑫（返代金券）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1268,7 +1268,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1637,7 +1637,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1869,8 +1869,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>131</v>
+      <c r="A26" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>126</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>126</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>126</v>
@@ -1937,13 +1937,13 @@
         <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>126</v>
@@ -1972,7 +1972,7 @@
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -1983,22 +1983,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -2012,22 +2012,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2041,22 +2041,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2070,22 +2070,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2098,17 +2098,17 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
+      <c r="A34" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>
@@ -2119,22 +2119,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2290,13 +2290,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
       </c>
       <c r="D51" s="5">
         <v>15027208041</v>
@@ -2324,19 +2324,19 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2397,7 +2397,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
         <v>71</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" t="s">
         <v>153</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>154</v>
-      </c>
-      <c r="C103" t="s">
-        <v>155</v>
       </c>
       <c r="D103" s="5">
         <v>18672250682</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" t="s">
         <v>160</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>161</v>
-      </c>
-      <c r="C104" t="s">
-        <v>162</v>
       </c>
       <c r="D104" s="3">
         <v>18871831827</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" t="s">
         <v>163</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>164</v>
-      </c>
-      <c r="C106" t="s">
-        <v>165</v>
       </c>
       <c r="D106" s="8">
         <v>18807264185</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牟荇雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +706,10 @@
   </si>
   <si>
     <t>陈恳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟芯雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>22</v>
@@ -1268,7 +1268,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1332,7 +1332,7 @@
         <v>1400</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="5">
         <v>1400</v>
@@ -1637,7 +1637,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="5">
         <v>15586689828</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
@@ -1757,22 +1757,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E22" s="5">
         <v>18872817398</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="5">
         <v>15971708966</v>
@@ -1786,22 +1786,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E23" s="5">
         <v>13972409178</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H23" s="5">
         <v>1400</v>
@@ -1812,22 +1812,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E24" s="5">
         <v>15272242064</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="5">
         <v>13477256849</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E25" s="5">
         <v>13264920548</v>
@@ -1870,22 +1870,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E26" s="5">
         <v>13277535085</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="5">
         <v>18695045761</v>
@@ -1899,22 +1899,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="5">
         <v>15707259049</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="5">
         <v>15571887993</v>
@@ -1928,22 +1928,22 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -1957,22 +1957,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="5">
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -1983,22 +1983,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -2012,22 +2012,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2041,22 +2041,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2070,22 +2070,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>
@@ -2119,22 +2119,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2165,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2230,19 +2230,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="5">
         <v>13235446111</v>
       </c>
       <c r="E48" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F48" s="9">
         <v>42437</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E49" s="5">
         <v>1100</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
       </c>
       <c r="D50" s="5">
         <v>15272978373</v>
@@ -2290,13 +2290,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
       </c>
       <c r="D51" s="5">
         <v>15027208041</v>
@@ -2304,18 +2304,18 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
         <v>86</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
       </c>
       <c r="D71">
         <v>2520</v>
@@ -2324,24 +2324,24 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2373,12 +2373,12 @@
         <v>15172812542</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2397,13 +2397,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" t="s">
         <v>71</v>
-      </c>
-      <c r="C86" t="s">
-        <v>72</v>
       </c>
       <c r="D86" s="5">
         <v>13695816159</v>
@@ -2414,13 +2414,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
         <v>71</v>
-      </c>
-      <c r="C87" t="s">
-        <v>72</v>
       </c>
       <c r="D87" s="5">
         <v>13403065941</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" t="s">
         <v>71</v>
-      </c>
-      <c r="C88" t="s">
-        <v>72</v>
       </c>
       <c r="D88" s="5">
         <v>15027215465</v>
@@ -2445,13 +2445,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" t="s">
         <v>71</v>
-      </c>
-      <c r="C89" t="s">
-        <v>72</v>
       </c>
       <c r="D89" s="5">
         <v>15071881474</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D90" s="5">
         <v>15027222685</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" s="5">
         <v>15717269606</v>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D92" s="5">
         <v>13257258139</v>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93" s="5">
         <v>13997758186</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D94" s="5">
         <v>13593645694</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D95" s="5">
         <v>13403028896</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D96" s="5">
         <v>15570505211</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D97" s="5">
         <v>15586663670</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
         <v>105</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>106</v>
-      </c>
-      <c r="C98" t="s">
-        <v>107</v>
       </c>
       <c r="D98" s="5">
         <v>15272971398</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>109</v>
-      </c>
-      <c r="C99" t="s">
-        <v>110</v>
       </c>
       <c r="D99" s="5">
         <v>18371867763</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" t="s">
         <v>115</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>116</v>
-      </c>
-      <c r="C100" t="s">
-        <v>117</v>
       </c>
       <c r="D100" s="5">
         <v>15926111797</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
         <v>118</v>
-      </c>
-      <c r="B101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
       </c>
       <c r="D101" s="5">
         <v>15272249493</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D102" s="5">
         <v>18371839807</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
         <v>152</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>154</v>
       </c>
       <c r="D103" s="5">
         <v>18672250682</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
         <v>159</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>160</v>
-      </c>
-      <c r="C104" t="s">
-        <v>161</v>
       </c>
       <c r="D104" s="3">
         <v>18871831827</v>
@@ -2714,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D105" s="8">
         <v>18727677896</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" t="s">
         <v>162</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>163</v>
-      </c>
-      <c r="C106" t="s">
-        <v>164</v>
       </c>
       <c r="D106" s="8">
         <v>18807264185</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
   <si>
     <t>姓名</t>
   </si>
@@ -710,6 +710,26 @@
   </si>
   <si>
     <t>牟芯雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄晓辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江熬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000/暂时未交钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1139,7 +1159,7 @@
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
@@ -1151,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1242,7 +1262,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1306,7 +1326,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1338,7 +1358,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1370,7 +1390,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1402,7 +1422,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1431,7 +1451,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1463,7 +1483,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1495,7 +1515,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1588,7 +1608,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1614,7 +1634,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1643,7 +1663,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1675,7 +1695,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1706,7 +1726,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="14.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1735,7 +1755,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -1755,7 +1775,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1784,7 +1804,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1810,7 +1830,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -1839,7 +1859,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="11" t="s">
         <v>174</v>
       </c>
@@ -1897,7 +1917,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -1926,7 +1946,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -1955,7 +1975,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1981,7 +2001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -2010,7 +2030,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -2039,7 +2059,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -2068,7 +2088,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="14.25">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -2097,7 +2117,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="11" t="s">
         <v>154</v>
       </c>
@@ -2117,7 +2137,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="14.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2151,7 +2171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="14.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="14.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2381,7 +2401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="14.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2726,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="14.25">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -2738,6 +2758,40 @@
       </c>
       <c r="E106">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="8">
+        <v>15549222549</v>
+      </c>
+      <c r="E107">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" s="8">
+        <v>15172961641</v>
+      </c>
+      <c r="E108" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="184">
   <si>
     <t>姓名</t>
   </si>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾德茜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谭学才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冉湖川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一对一补课生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,6 +718,30 @@
   </si>
   <si>
     <t>1000/暂时未交钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王韫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未交钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1171,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1274,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1288,13 +1300,13 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1326,7 +1338,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1646,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1657,13 +1669,13 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1726,18 +1738,18 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E20" s="5">
         <v>15586689828</v>
@@ -1755,12 +1767,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
@@ -1775,24 +1787,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E22" s="5">
         <v>18872817398</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G22" s="5">
         <v>15971708966</v>
@@ -1804,24 +1816,24 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E23" s="5">
         <v>13972409178</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" s="5">
         <v>1400</v>
@@ -1830,24 +1842,24 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24" s="5">
         <v>15272242064</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G24" s="5">
         <v>13477256849</v>
@@ -1859,18 +1871,18 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="5">
         <v>13264920548</v>
@@ -1888,24 +1900,24 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5">
         <v>13277535085</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G26" s="5">
         <v>18695045761</v>
@@ -1917,24 +1929,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E27" s="5">
         <v>15707259049</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G27" s="5">
         <v>15571887993</v>
@@ -1946,24 +1958,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -1975,24 +1987,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="5">
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -2001,24 +2013,24 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -2030,24 +2042,24 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2059,24 +2071,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2088,24 +2100,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2117,19 +2129,19 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="H34" s="5">
         <v>700</v>
       </c>
@@ -2137,24 +2149,24 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2171,7 +2183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2185,10 +2197,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2250,7 +2262,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2268,7 +2280,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2290,13 +2302,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" s="5">
         <v>15272978373</v>
@@ -2310,13 +2322,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="5">
         <v>15027208041</v>
@@ -2324,18 +2336,18 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D71">
         <v>2520</v>
@@ -2344,19 +2356,19 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2380,7 +2392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="5">
         <v>15171055995</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="5">
         <v>15172812542</v>
       </c>
@@ -2396,12 +2408,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2415,9 +2427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -2431,8 +2443,11 @@
       <c r="E86">
         <v>1000</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="11" t="s">
         <v>72</v>
       </c>
@@ -2448,9 +2463,12 @@
       <c r="E87">
         <v>1000</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B88" t="s">
@@ -2460,27 +2478,33 @@
         <v>71</v>
       </c>
       <c r="D88" s="5">
-        <v>15027215465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>15071881474</v>
+      </c>
+      <c r="E88">
+        <v>1000</v>
+      </c>
+      <c r="F88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>71</v>
       </c>
       <c r="D89" s="5">
-        <v>15071881474</v>
+        <v>15027222685</v>
       </c>
       <c r="E89">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
         <v>76</v>
       </c>
@@ -2491,13 +2515,16 @@
         <v>71</v>
       </c>
       <c r="D90" s="5">
-        <v>15027222685</v>
+        <v>15717269606</v>
       </c>
       <c r="E90">
         <v>1000</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
         <v>77</v>
       </c>
@@ -2508,13 +2535,16 @@
         <v>71</v>
       </c>
       <c r="D91" s="5">
-        <v>15717269606</v>
+        <v>13257258139</v>
       </c>
       <c r="E91">
         <v>1000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
         <v>78</v>
       </c>
@@ -2525,14 +2555,17 @@
         <v>71</v>
       </c>
       <c r="D92" s="5">
-        <v>13257258139</v>
+        <v>13997758186</v>
       </c>
       <c r="E92">
         <v>1000</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="11" t="s">
+      <c r="F92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
         <v>79</v>
       </c>
       <c r="B93" t="s">
@@ -2542,14 +2575,11 @@
         <v>71</v>
       </c>
       <c r="D93" s="5">
-        <v>13997758186</v>
-      </c>
-      <c r="E93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
+        <v>13593645694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B94" t="s">
@@ -2559,239 +2589,229 @@
         <v>71</v>
       </c>
       <c r="D94" s="5">
-        <v>13593645694</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="11" t="s">
-        <v>81</v>
+        <v>13403028896</v>
+      </c>
+      <c r="E94">
+        <v>1000</v>
+      </c>
+      <c r="F94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D95" s="5">
-        <v>13403028896</v>
+        <v>15272971398</v>
       </c>
       <c r="E95">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>82</v>
+    <row r="96" spans="1:6">
+      <c r="A96" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D96" s="5">
-        <v>15570505211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>83</v>
+        <v>18371867763</v>
+      </c>
+      <c r="E96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D97" s="5">
-        <v>15586663670</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>104</v>
+        <v>15926111797</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D98" s="5">
-        <v>15272971398</v>
+        <v>15272249493</v>
       </c>
       <c r="E98">
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D99" s="5">
-        <v>18371867763</v>
+        <v>18371839807</v>
       </c>
       <c r="E99">
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="12" t="s">
-        <v>114</v>
+    <row r="100" spans="1:6">
+      <c r="A100" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="D100" s="5">
-        <v>15926111797</v>
+        <v>18672250682</v>
       </c>
       <c r="E100">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="3">
+        <v>18871831827</v>
+      </c>
+      <c r="E101">
+        <v>600</v>
+      </c>
+      <c r="F101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="8">
+        <v>18727677896</v>
+      </c>
+      <c r="E102">
+        <v>600</v>
+      </c>
+      <c r="F102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="8">
+        <v>18807264185</v>
+      </c>
+      <c r="E103">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="5">
-        <v>15272249493</v>
-      </c>
-      <c r="E101">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="5">
-        <v>18371839807</v>
-      </c>
-      <c r="E102">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" s="5">
-        <v>18672250682</v>
-      </c>
-      <c r="E103">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>158</v>
+    <row r="104" spans="1:6">
+      <c r="A104" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D104" s="3">
-        <v>18871831827</v>
+        <v>175</v>
+      </c>
+      <c r="D104" s="8">
+        <v>15549222549</v>
       </c>
       <c r="E104">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="14.25">
-      <c r="A105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>71</v>
+        <v>700</v>
+      </c>
+      <c r="F104" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" t="s">
+        <v>175</v>
       </c>
       <c r="D105" s="8">
-        <v>18727677896</v>
-      </c>
-      <c r="E105">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>15172961641</v>
+      </c>
+      <c r="E105" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="11" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D106" s="8">
-        <v>18807264185</v>
-      </c>
-      <c r="E106">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B107" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="8">
-        <v>15549222549</v>
-      </c>
-      <c r="E107">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B108" t="s">
-        <v>177</v>
-      </c>
-      <c r="C108" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="8">
-        <v>15172961641</v>
-      </c>
-      <c r="E108" t="s">
-        <v>180</v>
+        <v>15926125672</v>
+      </c>
+      <c r="E106" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="183">
   <si>
     <t>姓名</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预报名的体训学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谭泽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廖跃川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,6 +734,10 @@
   </si>
   <si>
     <t>买数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中班同学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1300,7 +1296,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1669,7 +1665,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1740,16 +1736,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E20" s="5">
         <v>15586689828</v>
@@ -1769,10 +1765,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
@@ -1789,22 +1785,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E22" s="5">
         <v>18872817398</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G22" s="5">
         <v>15971708966</v>
@@ -1818,22 +1814,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E23" s="5">
         <v>13972409178</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H23" s="5">
         <v>1400</v>
@@ -1844,22 +1840,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E24" s="5">
         <v>15272242064</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" s="5">
         <v>13477256849</v>
@@ -1873,16 +1869,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E25" s="5">
         <v>13264920548</v>
@@ -1902,22 +1898,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E26" s="5">
         <v>13277535085</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" s="5">
         <v>18695045761</v>
@@ -1931,22 +1927,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" s="5">
         <v>15707259049</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G27" s="5">
         <v>15571887993</v>
@@ -1960,22 +1956,22 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -1989,22 +1985,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" s="5">
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -2015,22 +2011,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -2044,22 +2040,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2073,22 +2069,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2102,22 +2098,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2131,16 +2127,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>
@@ -2151,22 +2147,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2178,176 +2174,176 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
+      <c r="E58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E59" s="5">
         <v>500</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F59" s="9">
         <v>42430</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B60" t="s">
         <v>24</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D60" s="5">
         <v>15172819967</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E60" s="5">
         <v>600</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F60" s="9">
         <v>42430</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>26</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D61" s="5">
         <v>15172819967</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E61" s="5">
         <v>600</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F61" s="9">
         <v>42430</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C62" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D62" s="5">
         <v>13235446111</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E62" s="5">
         <v>600</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F62" s="9">
         <v>42437</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E63" s="5">
         <v>1100</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F63" s="9">
         <v>42444</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
         <v>117</v>
       </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="D64" s="5">
         <v>15272978373</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E64" s="5">
         <v>300</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F64" s="9">
         <v>42450</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
         <v>145</v>
       </c>
-      <c r="B51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="D65" s="5">
         <v>15027208041</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
         <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>84</v>
       </c>
       <c r="D71">
         <v>2520</v>
@@ -2356,19 +2352,19 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2410,7 +2406,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2429,7 +2425,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -2444,7 +2440,7 @@
         <v>1000</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2464,7 +2460,7 @@
         <v>1000</v>
       </c>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2484,12 +2480,12 @@
         <v>1000</v>
       </c>
       <c r="F88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2506,7 +2502,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2521,12 +2517,12 @@
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -2541,12 +2537,12 @@
         <v>1000</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -2561,12 +2557,12 @@
         <v>1000</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>79</v>
+      <c r="A93" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2575,75 +2571,78 @@
         <v>71</v>
       </c>
       <c r="D93" s="5">
-        <v>13593645694</v>
+        <v>13403028896</v>
+      </c>
+      <c r="E93">
+        <v>1000</v>
+      </c>
+      <c r="F93" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="11" t="s">
-        <v>80</v>
+      <c r="A94" t="s">
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D94" s="5">
-        <v>13403028896</v>
+        <v>15272971398</v>
       </c>
       <c r="E94">
         <v>1000</v>
       </c>
-      <c r="F94" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>101</v>
+      <c r="A95" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" s="5">
-        <v>15272971398</v>
+        <v>18371867763</v>
       </c>
       <c r="E95">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="11" t="s">
-        <v>104</v>
+      <c r="A96" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D96" s="5">
-        <v>18371867763</v>
+        <v>15926111797</v>
       </c>
       <c r="E96">
         <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="12" t="s">
-        <v>111</v>
+      <c r="A97" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
         <v>113</v>
       </c>
       <c r="D97" s="5">
-        <v>15926111797</v>
+        <v>15272249493</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -2654,13 +2653,13 @@
         <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D98" s="5">
-        <v>15272249493</v>
+        <v>18371839807</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -2668,113 +2667,116 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D99" s="5">
-        <v>18371839807</v>
+        <v>18672250682</v>
       </c>
       <c r="E99">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="11" t="s">
-        <v>148</v>
+      <c r="A100" t="s">
+        <v>153</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" s="5">
-        <v>18672250682</v>
+        <v>155</v>
+      </c>
+      <c r="D100" s="3">
+        <v>18871831827</v>
       </c>
       <c r="E100">
-        <v>700</v>
+        <v>600</v>
+      </c>
+      <c r="F100" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" t="s">
-        <v>156</v>
-      </c>
-      <c r="C101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="3">
-        <v>18871831827</v>
+        <v>27</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="8">
+        <v>18727677896</v>
       </c>
       <c r="E101">
         <v>600</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>71</v>
+      <c r="A102" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" t="s">
+        <v>158</v>
       </c>
       <c r="D102" s="8">
-        <v>18727677896</v>
+        <v>18807264185</v>
       </c>
       <c r="E102">
-        <v>600</v>
-      </c>
-      <c r="F102" t="s">
-        <v>182</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D103" s="8">
-        <v>18807264185</v>
+        <v>15549222549</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>700</v>
+      </c>
+      <c r="F103" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" t="s">
         <v>173</v>
       </c>
-      <c r="B104" t="s">
-        <v>174</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" s="8">
+        <v>15172961641</v>
+      </c>
+      <c r="E104" t="s">
         <v>175</v>
       </c>
-      <c r="D104" s="8">
-        <v>15549222549</v>
-      </c>
-      <c r="E104">
-        <v>700</v>
-      </c>
       <c r="F104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2782,36 +2784,16 @@
         <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D105" s="8">
-        <v>15172961641</v>
+        <v>15926125672</v>
       </c>
       <c r="E105" t="s">
-        <v>177</v>
-      </c>
-      <c r="F105" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" t="s">
         <v>179</v>
-      </c>
-      <c r="C106" t="s">
-        <v>180</v>
-      </c>
-      <c r="D106" s="8">
-        <v>15926125672</v>
-      </c>
-      <c r="E106" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
   <si>
     <t>姓名</t>
   </si>
@@ -722,10 +722,6 @@
   </si>
   <si>
     <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未交钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1157,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2388,7 +2384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81" s="5">
         <v>15171055995</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7">
       <c r="A82" s="5">
         <v>15172812542</v>
       </c>
@@ -2404,12 +2400,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
         <v>159</v>
       </c>
@@ -2440,10 +2436,13 @@
         <v>1000</v>
       </c>
       <c r="F86" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="11" t="s">
         <v>72</v>
       </c>
@@ -2460,10 +2459,13 @@
         <v>1000</v>
       </c>
       <c r="F87" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="11" t="s">
         <v>73</v>
       </c>
@@ -2480,10 +2482,13 @@
         <v>1000</v>
       </c>
       <c r="F88" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="11" t="s">
         <v>74</v>
       </c>
@@ -2499,8 +2504,11 @@
       <c r="E89">
         <v>1000</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="11" t="s">
         <v>75</v>
       </c>
@@ -2517,10 +2525,10 @@
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="11" t="s">
         <v>76</v>
       </c>
@@ -2537,10 +2545,13 @@
         <v>1000</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="11" t="s">
         <v>77</v>
       </c>
@@ -2557,10 +2568,13 @@
         <v>1000</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="11" t="s">
         <v>78</v>
       </c>
@@ -2577,10 +2591,10 @@
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -2596,8 +2610,11 @@
       <c r="E94">
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="11" t="s">
         <v>102</v>
       </c>
@@ -2614,7 +2631,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:7">
       <c r="A96" s="12" t="s">
         <v>109</v>
       </c>
@@ -2630,8 +2647,11 @@
       <c r="E96">
         <v>1000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="11" t="s">
         <v>112</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:7">
       <c r="A98" s="11" t="s">
         <v>114</v>
       </c>
@@ -2665,7 +2685,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:7">
       <c r="A99" s="11" t="s">
         <v>146</v>
       </c>
@@ -2682,7 +2702,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -2696,13 +2716,16 @@
         <v>18871831827</v>
       </c>
       <c r="E100">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2719,10 +2742,13 @@
         <v>600</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="11" t="s">
         <v>156</v>
       </c>
@@ -2738,8 +2764,11 @@
       <c r="E102">
         <v>1000</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="11" t="s">
         <v>171</v>
       </c>
@@ -2756,10 +2785,10 @@
         <v>700</v>
       </c>
       <c r="F103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
         <v>174</v>
       </c>
@@ -2776,10 +2805,13 @@
         <v>175</v>
       </c>
       <c r="F104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
         <v>176</v>
       </c>
@@ -2792,8 +2824,8 @@
       <c r="D105" s="8">
         <v>15926125672</v>
       </c>
-      <c r="E105" t="s">
-        <v>179</v>
+      <c r="E105">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="181">
   <si>
     <t>姓名</t>
   </si>
@@ -706,10 +706,6 @@
   </si>
   <si>
     <t>吴江熬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000/暂时未交钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1153,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2170,6 +2166,12 @@
         <v>700</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="H36">
+        <f>SUM(H3:H35)</f>
+        <v>27800</v>
+      </c>
+    </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>13</v>
@@ -2402,7 +2404,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2436,7 +2438,7 @@
         <v>1000</v>
       </c>
       <c r="F86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G86">
         <v>50</v>
@@ -2459,7 +2461,7 @@
         <v>1000</v>
       </c>
       <c r="F87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G87">
         <v>50</v>
@@ -2482,7 +2484,7 @@
         <v>1000</v>
       </c>
       <c r="F88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G88">
         <v>50</v>
@@ -2525,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2545,7 +2547,7 @@
         <v>1000</v>
       </c>
       <c r="F91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G91">
         <v>50</v>
@@ -2568,7 +2570,7 @@
         <v>1000</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G92">
         <v>50</v>
@@ -2591,7 +2593,7 @@
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2719,7 +2721,7 @@
         <v>900</v>
       </c>
       <c r="F100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G100">
         <v>50</v>
@@ -2742,7 +2744,7 @@
         <v>600</v>
       </c>
       <c r="F101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G101">
         <v>50</v>
@@ -2785,7 +2787,7 @@
         <v>700</v>
       </c>
       <c r="F103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2801,11 +2803,11 @@
       <c r="D104" s="8">
         <v>15172961641</v>
       </c>
-      <c r="E104" t="s">
-        <v>175</v>
+      <c r="E104">
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G104">
         <v>50</v>
@@ -2813,13 +2815,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" t="s">
         <v>176</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>177</v>
-      </c>
-      <c r="C105" t="s">
-        <v>178</v>
       </c>
       <c r="D105" s="8">
         <v>15926125672</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="186">
   <si>
     <t>姓名</t>
   </si>
@@ -730,6 +730,26 @@
   </si>
   <si>
     <t>二中班同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2167,9 +2187,32 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="H36">
-        <f>SUM(H3:H35)</f>
-        <v>27800</v>
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="5">
+        <v>15571836352</v>
+      </c>
+      <c r="F36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="5">
+        <v>18814931567</v>
+      </c>
+      <c r="H36" s="5">
+        <v>500</v>
+      </c>
+      <c r="J36" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
   <si>
     <t>姓名</t>
   </si>
@@ -750,6 +750,22 @@
   </si>
   <si>
     <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2871,6 +2887,40 @@
       </c>
       <c r="E105">
         <v>700</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="8">
+        <v>18727676910</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="8">
+        <v>18671146790</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
   <si>
     <t>姓名</t>
   </si>
@@ -766,6 +766,10 @@
   </si>
   <si>
     <t>熊平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2165,6 +2169,15 @@
       </c>
       <c r="D34" s="5" t="s">
         <v>152</v>
+      </c>
+      <c r="E34" s="5">
+        <v>18872140403</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="5">
+        <v>13636290531</v>
       </c>
       <c r="H34" s="5">
         <v>700</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
   <si>
     <t>姓名</t>
   </si>
@@ -770,6 +770,14 @@
   </si>
   <si>
     <t>姚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2492,6 +2500,12 @@
       <c r="D85" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E85" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
@@ -2506,13 +2520,13 @@
       <c r="D86" s="5">
         <v>13695816159</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="5">
         <v>1000</v>
       </c>
       <c r="F86" t="s">
         <v>178</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2529,13 +2543,13 @@
       <c r="D87" s="5">
         <v>13403065941</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="5">
         <v>1000</v>
       </c>
       <c r="F87" t="s">
         <v>178</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2552,13 +2566,13 @@
       <c r="D88" s="5">
         <v>15071881474</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="5">
         <v>1000</v>
       </c>
       <c r="F88" t="s">
         <v>178</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2575,10 +2589,10 @@
       <c r="D89" s="5">
         <v>15027222685</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="5">
         <v>1000</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2595,12 +2609,13 @@
       <c r="D90" s="5">
         <v>15717269606</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="5">
         <v>1000</v>
       </c>
       <c r="F90" t="s">
         <v>178</v>
       </c>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="11" t="s">
@@ -2615,13 +2630,13 @@
       <c r="D91" s="5">
         <v>13257258139</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="5">
         <v>1000</v>
       </c>
       <c r="F91" t="s">
         <v>178</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2638,13 +2653,13 @@
       <c r="D92" s="5">
         <v>13997758186</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <v>1000</v>
       </c>
       <c r="F92" t="s">
         <v>178</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2661,12 +2676,13 @@
       <c r="D93" s="5">
         <v>13403028896</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="5">
         <v>1000</v>
       </c>
       <c r="F93" t="s">
         <v>178</v>
       </c>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
@@ -2681,10 +2697,10 @@
       <c r="D94" s="5">
         <v>15272971398</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="5">
         <v>1000</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2701,9 +2717,10 @@
       <c r="D95" s="5">
         <v>18371867763</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="5">
         <v>1000</v>
       </c>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="12" t="s">
@@ -2718,10 +2735,10 @@
       <c r="D96" s="5">
         <v>15926111797</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="5">
         <v>1000</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2738,9 +2755,10 @@
       <c r="D97" s="5">
         <v>15272249493</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="5">
         <v>1000</v>
       </c>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="11" t="s">
@@ -2755,9 +2773,10 @@
       <c r="D98" s="5">
         <v>18371839807</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="5">
         <v>1000</v>
       </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="11" t="s">
@@ -2772,9 +2791,10 @@
       <c r="D99" s="5">
         <v>18672250682</v>
       </c>
-      <c r="E99">
-        <v>700</v>
-      </c>
+      <c r="E99" s="5">
+        <v>700</v>
+      </c>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
@@ -2789,13 +2809,13 @@
       <c r="D100" s="3">
         <v>18871831827</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="5">
         <v>900</v>
       </c>
       <c r="F100" t="s">
         <v>178</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2812,13 +2832,13 @@
       <c r="D101" s="8">
         <v>18727677896</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="5">
         <v>600</v>
       </c>
       <c r="F101" t="s">
         <v>178</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2835,10 +2855,10 @@
       <c r="D102" s="8">
         <v>18807264185</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="5">
         <v>1000</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2855,12 +2875,13 @@
       <c r="D103" s="8">
         <v>15549222549</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="5">
         <v>700</v>
       </c>
       <c r="F103" t="s">
         <v>179</v>
       </c>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
@@ -2875,13 +2896,13 @@
       <c r="D104" s="8">
         <v>15172961641</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="5">
         <v>0</v>
       </c>
       <c r="F104" t="s">
         <v>178</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2898,9 +2919,10 @@
       <c r="D105" s="8">
         <v>15926125672</v>
       </c>
-      <c r="E105">
-        <v>700</v>
-      </c>
+      <c r="E105" s="5">
+        <v>700</v>
+      </c>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="11" t="s">
@@ -2915,9 +2937,10 @@
       <c r="D106" s="8">
         <v>18727676910</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
+      <c r="E106" s="5">
+        <v>700</v>
+      </c>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11" t="s">
@@ -2932,9 +2955,10 @@
       <c r="D107" s="8">
         <v>18671146790</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
+      <c r="E107" s="5">
+        <v>700</v>
+      </c>
+      <c r="G107" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
   <si>
     <t>姓名</t>
   </si>
@@ -778,6 +778,18 @@
   </si>
   <si>
     <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向殿朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2959,6 +2971,23 @@
         <v>700</v>
       </c>
       <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="8">
+        <v>15727267931</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
   <si>
     <t>姓名</t>
   </si>
@@ -786,6 +786,18 @@
   </si>
   <si>
     <t>三中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉湖川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1207,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2986,6 +2998,23 @@
         <v>15727267931</v>
       </c>
       <c r="E108" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="8">
+        <v>15586663670</v>
+      </c>
+      <c r="E109" s="5">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3015,7 +3015,7 @@
         <v>15586663670</v>
       </c>
       <c r="E109" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3016,6 +3016,9 @@
       </c>
       <c r="E109" s="5">
         <v>700</v>
+      </c>
+      <c r="G109" s="5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
   <si>
     <t>姓名</t>
   </si>
@@ -794,6 +794,18 @@
   </si>
   <si>
     <t>冉湖川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田彩荣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1219,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3019,6 +3031,23 @@
       </c>
       <c r="G109" s="5">
         <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="8">
+        <v>17771667290</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="205">
   <si>
     <t>姓名</t>
   </si>
@@ -806,6 +806,18 @@
   </si>
   <si>
     <t>田彩荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1231,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3048,6 +3060,23 @@
       </c>
       <c r="E110" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" s="8">
+        <v>13477877495</v>
+      </c>
+      <c r="E111" s="5">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
   <si>
     <t>姓名</t>
   </si>
@@ -578,18 +578,6 @@
   </si>
   <si>
     <t>朱珊珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李静怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1245,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1384,7 +1372,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1753,7 +1741,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1986,7 +1974,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>120</v>
@@ -2215,22 +2203,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E34" s="5">
         <v>18872140403</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="5">
         <v>13636290531</v>
@@ -2244,22 +2232,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2273,22 +2261,22 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E36" s="5">
         <v>15571836352</v>
       </c>
       <c r="F36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G36" s="5">
         <v>18814931567</v>
@@ -2384,7 +2372,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2443,17 +2431,9 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="5">
-        <v>15027208041</v>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2478,7 +2458,7 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2490,7 +2470,7 @@
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2532,7 +2512,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2549,15 +2529,15 @@
         <v>2</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -2572,7 +2552,7 @@
         <v>1000</v>
       </c>
       <c r="F86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G86" s="5">
         <v>50</v>
@@ -2595,7 +2575,7 @@
         <v>1000</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G87" s="5">
         <v>50</v>
@@ -2618,7 +2598,7 @@
         <v>1000</v>
       </c>
       <c r="F88" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G88" s="5">
         <v>50</v>
@@ -2661,7 +2641,7 @@
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" s="5"/>
     </row>
@@ -2682,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" s="5">
         <v>50</v>
@@ -2705,7 +2685,7 @@
         <v>1000</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" s="5">
         <v>50</v>
@@ -2728,7 +2708,7 @@
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G93" s="5"/>
     </row>
@@ -2828,13 +2808,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D99" s="5">
         <v>18672250682</v>
@@ -2846,13 +2826,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D100" s="3">
         <v>18871831827</v>
@@ -2861,7 +2841,7 @@
         <v>900</v>
       </c>
       <c r="F100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G100" s="5">
         <v>50</v>
@@ -2884,7 +2864,7 @@
         <v>600</v>
       </c>
       <c r="F101" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G101" s="5">
         <v>50</v>
@@ -2892,13 +2872,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D102" s="8">
         <v>18807264185</v>
@@ -2912,13 +2892,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D103" s="8">
         <v>15549222549</v>
@@ -2927,19 +2907,19 @@
         <v>700</v>
       </c>
       <c r="F103" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D104" s="8">
         <v>15172961641</v>
@@ -2948,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G104" s="5">
         <v>50</v>
@@ -2956,13 +2936,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D105" s="8">
         <v>15926125672</v>
@@ -2974,13 +2954,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D106" s="8">
         <v>18727676910</v>
@@ -2992,13 +2972,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D107" s="8">
         <v>18671146790</v>
@@ -3010,13 +2990,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D108" s="8">
         <v>15727267931</v>
@@ -3027,13 +3007,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C109" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D109" s="8">
         <v>15586663670</v>
@@ -3047,13 +3027,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D110" s="8">
         <v>17771667290</v>
@@ -3064,13 +3044,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D111" s="8">
         <v>13477877495</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3056,7 +3056,7 @@
         <v>13477877495</v>
       </c>
       <c r="E111" s="5">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2344,7 +2344,7 @@
         <v>15172819967</v>
       </c>
       <c r="E60" s="5">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F60" s="9">
         <v>42430</v>
@@ -2364,7 +2364,7 @@
         <v>15172819967</v>
       </c>
       <c r="E61" s="5">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F61" s="9">
         <v>42430</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="207">
   <si>
     <t>姓名</t>
   </si>
@@ -814,6 +814,44 @@
   </si>
   <si>
     <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石晓凤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1255,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1354,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1384,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1378,7 +1416,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1448,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1442,7 +1480,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1512,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1506,7 +1544,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1535,7 +1573,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1567,7 +1605,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1599,7 +1637,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1631,7 +1669,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1663,7 +1701,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1692,7 +1730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1718,7 +1756,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1785,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1779,7 +1817,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1810,7 +1848,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="14.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1839,7 +1877,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1859,7 +1897,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1888,7 +1926,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1914,7 +1952,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1943,7 +1981,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -1972,7 +2010,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="11" t="s">
         <v>166</v>
       </c>
@@ -2001,7 +2039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -2030,7 +2068,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -2059,7 +2097,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -2085,7 +2123,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -2114,7 +2152,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2143,7 +2181,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -2172,7 +2210,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="14.25">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -2201,7 +2239,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="11" t="s">
         <v>146</v>
       </c>
@@ -2230,7 +2268,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="14.25">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -2259,7 +2297,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="14.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -2285,6 +2323,64 @@
         <v>500</v>
       </c>
       <c r="J36" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="5">
+        <v>13217183132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="5">
+        <v>15587450106</v>
+      </c>
+      <c r="H37" s="5">
+        <v>500</v>
+      </c>
+      <c r="J37" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="5">
+        <v>18872158907</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="5">
+        <v>13818297367</v>
+      </c>
+      <c r="H38" s="5">
+        <v>500</v>
+      </c>
+      <c r="J38" s="5">
         <v>500</v>
       </c>
     </row>
@@ -2293,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2486,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2611,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="14.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
         <v>166</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
         <v>146</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>202</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="D71">
-        <v>2520</v>
+        <v>3800</v>
       </c>
       <c r="E71" s="10">
         <v>42448</v>
@@ -2611,7 +2611,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>27</v>
       </c>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
   <si>
     <t>姓名</t>
   </si>
@@ -852,6 +852,22 @@
   </si>
   <si>
     <t>石晓凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林诗英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2381,6 +2397,35 @@
         <v>500</v>
       </c>
       <c r="J38" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="5">
+        <v>18371841735</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="5">
+        <v>13197237333</v>
+      </c>
+      <c r="H39" s="5">
+        <v>500</v>
+      </c>
+      <c r="J39" s="5">
         <v>500</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
   <si>
     <t>姓名</t>
   </si>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2338,6 +2338,9 @@
       <c r="H36" s="5">
         <v>500</v>
       </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
       <c r="J36" s="5">
         <v>500</v>
       </c>
@@ -2367,6 +2370,9 @@
       <c r="H37" s="5">
         <v>500</v>
       </c>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
       <c r="J37" s="5">
         <v>500</v>
       </c>
@@ -2395,6 +2401,9 @@
       </c>
       <c r="H38" s="5">
         <v>500</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
       </c>
       <c r="J38" s="5">
         <v>500</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
   <si>
     <t>姓名</t>
   </si>
@@ -868,6 +868,18 @@
   </si>
   <si>
     <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江美君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3207,6 +3219,23 @@
       </c>
       <c r="E111" s="5">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" s="8">
+        <v>18371851610</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="5">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F59" s="9">
         <v>42430</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1297,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2450,6 +2450,12 @@
         <v>500</v>
       </c>
     </row>
+    <row r="40" spans="1:10">
+      <c r="J40">
+        <f>SUM(J3:J39)</f>
+        <v>29800</v>
+      </c>
+    </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>13</v>
@@ -3235,7 +3241,13 @@
         <v>18371851610</v>
       </c>
       <c r="E112" s="5">
-        <v>0</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113">
+        <f>SUM(E86:E112)</f>
+        <v>22125</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
   <si>
     <t>姓名</t>
   </si>
@@ -782,18 +782,6 @@
   </si>
   <si>
     <t>冉湖川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田彩荣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1297,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2359,16 +2347,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="E37" s="5">
         <v>13217183132</v>
@@ -2391,16 +2379,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E38" s="5">
         <v>18872158907</v>
@@ -2423,16 +2411,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="E39" s="5">
         <v>18371841735</v>
@@ -3204,49 +3192,32 @@
         <v>198</v>
       </c>
       <c r="D110" s="8">
-        <v>17771667290</v>
+        <v>13477877495</v>
       </c>
       <c r="E110" s="5">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D111" s="8">
-        <v>13477877495</v>
+        <v>18371851610</v>
       </c>
       <c r="E111" s="5">
-        <v>1000</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B112" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" s="8">
-        <v>18371851610</v>
-      </c>
-      <c r="E112" s="5">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113">
-        <f>SUM(E86:E112)</f>
+      <c r="E112">
+        <f>SUM(E86:E111)</f>
         <v>22125</v>
       </c>
     </row>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡成果/李隆鑫，有一张洗过的钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际缴费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,6 +864,10 @@
   </si>
   <si>
     <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果/李隆鑫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>22</v>
@@ -1426,7 +1426,7 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="5">
         <v>600</v>
@@ -1490,7 +1490,7 @@
         <v>1400</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="J7" s="5">
         <v>1400</v>
@@ -1795,7 +1795,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E20" s="5">
         <v>15586689828</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
@@ -1915,22 +1915,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E22" s="5">
         <v>18872817398</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5">
         <v>15971708966</v>
@@ -1944,22 +1944,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E23" s="5">
         <v>13972409178</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="5">
         <v>1400</v>
@@ -1970,22 +1970,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E24" s="5">
         <v>15272242064</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="5">
         <v>13477256849</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="5">
         <v>13264920548</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E26" s="5">
         <v>13277535085</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" s="5">
         <v>18695045761</v>
@@ -2057,22 +2057,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="5">
         <v>15707259049</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="5">
         <v>15571887993</v>
@@ -2086,22 +2086,22 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5">
         <v>15502782296</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="5">
         <v>13858492733</v>
@@ -2115,22 +2115,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="5">
         <v>13477230097</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -2141,22 +2141,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="5">
         <v>13100764472</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="5">
         <v>15857673866</v>
@@ -2170,22 +2170,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="E31" s="5">
         <v>18371821613</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="5">
         <v>18371807908</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="E32" s="5">
         <v>15587656830</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="5">
         <v>13886752328</v>
@@ -2228,22 +2228,22 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="5">
         <v>15071863980</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="5">
         <v>18071928889</v>
@@ -2257,22 +2257,22 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E34" s="5">
         <v>18872140403</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" s="5">
         <v>13636290531</v>
@@ -2286,22 +2286,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2315,22 +2315,22 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E36" s="5">
         <v>15571836352</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="5">
         <v>18814931567</v>
@@ -2347,22 +2347,22 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="E37" s="5">
         <v>13217183132</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="5">
         <v>15587450106</v>
@@ -2379,22 +2379,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="E38" s="5">
         <v>18872158907</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="5">
         <v>13818297367</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E39" s="5">
         <v>18371841735</v>
@@ -2463,10 +2463,10 @@
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2528,7 +2528,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2568,13 +2568,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
       </c>
       <c r="D64" s="5">
         <v>15272978373</v>
@@ -2594,18 +2594,18 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>81</v>
-      </c>
-      <c r="C71" t="s">
-        <v>82</v>
       </c>
       <c r="D71">
         <v>3800</v>
@@ -2614,24 +2614,24 @@
         <v>42448</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72">
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2663,12 +2663,12 @@
         <v>15172812542</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2685,21 +2685,21 @@
         <v>2</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
         <v>70</v>
-      </c>
-      <c r="C86" t="s">
-        <v>71</v>
       </c>
       <c r="D86" s="5">
         <v>13695816159</v>
@@ -2708,7 +2708,7 @@
         <v>1000</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G86" s="5">
         <v>50</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
         <v>70</v>
-      </c>
-      <c r="C87" t="s">
-        <v>71</v>
       </c>
       <c r="D87" s="5">
         <v>13403065941</v>
@@ -2731,7 +2731,7 @@
         <v>1000</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G87" s="5">
         <v>50</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
         <v>70</v>
-      </c>
-      <c r="C88" t="s">
-        <v>71</v>
       </c>
       <c r="D88" s="5">
         <v>15071881474</v>
@@ -2754,7 +2754,7 @@
         <v>1000</v>
       </c>
       <c r="F88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G88" s="5">
         <v>50</v>
@@ -2762,13 +2762,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="5">
         <v>15027222685</v>
@@ -2782,13 +2782,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="5">
         <v>15717269606</v>
@@ -2797,19 +2797,19 @@
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="5">
         <v>13257258139</v>
@@ -2818,7 +2818,7 @@
         <v>1000</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G91" s="5">
         <v>50</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="5">
         <v>13997758186</v>
@@ -2841,7 +2841,7 @@
         <v>1000</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G92" s="5">
         <v>50</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="5">
         <v>13403028896</v>
@@ -2864,19 +2864,19 @@
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>100</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
       </c>
       <c r="D94" s="5">
         <v>15272971398</v>
@@ -2890,13 +2890,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
         <v>102</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>103</v>
-      </c>
-      <c r="C95" t="s">
-        <v>104</v>
       </c>
       <c r="D95" s="5">
         <v>18371867763</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
         <v>109</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>110</v>
-      </c>
-      <c r="C96" t="s">
-        <v>111</v>
       </c>
       <c r="D96" s="5">
         <v>15926111797</v>
@@ -2928,13 +2928,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
         <v>112</v>
-      </c>
-      <c r="B97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
       </c>
       <c r="D97" s="5">
         <v>15272249493</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" s="5">
         <v>18371839807</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
         <v>143</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>144</v>
-      </c>
-      <c r="C99" t="s">
-        <v>145</v>
       </c>
       <c r="D99" s="5">
         <v>18672250682</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" t="s">
         <v>150</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>151</v>
-      </c>
-      <c r="C100" t="s">
-        <v>152</v>
       </c>
       <c r="D100" s="3">
         <v>18871831827</v>
@@ -2997,7 +2997,7 @@
         <v>900</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G100" s="5">
         <v>50</v>
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D101" s="8">
         <v>18727677896</v>
@@ -3020,7 +3020,7 @@
         <v>600</v>
       </c>
       <c r="F101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G101" s="5">
         <v>50</v>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" t="s">
         <v>153</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>154</v>
-      </c>
-      <c r="C102" t="s">
-        <v>155</v>
       </c>
       <c r="D102" s="8">
         <v>18807264185</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" t="s">
         <v>168</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>169</v>
-      </c>
-      <c r="C103" t="s">
-        <v>170</v>
       </c>
       <c r="D103" s="8">
         <v>15549222549</v>
@@ -3063,19 +3063,19 @@
         <v>700</v>
       </c>
       <c r="F103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
         <v>169</v>
-      </c>
-      <c r="C104" t="s">
-        <v>170</v>
       </c>
       <c r="D104" s="8">
         <v>15172961641</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G104" s="5">
         <v>50</v>
@@ -3092,13 +3092,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" t="s">
         <v>172</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>173</v>
-      </c>
-      <c r="C105" t="s">
-        <v>174</v>
       </c>
       <c r="D105" s="8">
         <v>15926125672</v>
@@ -3110,13 +3110,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" t="s">
         <v>183</v>
-      </c>
-      <c r="C106" t="s">
-        <v>184</v>
       </c>
       <c r="D106" s="8">
         <v>18727676910</v>
@@ -3128,13 +3128,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" t="s">
         <v>183</v>
-      </c>
-      <c r="C107" t="s">
-        <v>184</v>
       </c>
       <c r="D107" s="8">
         <v>18671146790</v>
@@ -3146,13 +3146,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" t="s">
         <v>190</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>191</v>
-      </c>
-      <c r="C108" t="s">
-        <v>192</v>
       </c>
       <c r="D108" s="8">
         <v>15727267931</v>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" t="s">
         <v>193</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>194</v>
-      </c>
-      <c r="C109" t="s">
-        <v>195</v>
       </c>
       <c r="D109" s="8">
         <v>15586663670</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" t="s">
         <v>196</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>197</v>
-      </c>
-      <c r="C110" t="s">
-        <v>198</v>
       </c>
       <c r="D110" s="8">
         <v>13477877495</v>
@@ -3200,13 +3200,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s">
         <v>208</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>209</v>
-      </c>
-      <c r="C111" t="s">
-        <v>210</v>
       </c>
       <c r="D111" s="8">
         <v>18371851610</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2592,6 +2592,12 @@
         <v>200</v>
       </c>
     </row>
+    <row r="66" spans="1:6">
+      <c r="E66">
+        <f>SUM(E59:E65)</f>
+        <v>4800</v>
+      </c>
+    </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>78</v>
@@ -2627,6 +2633,12 @@
       </c>
       <c r="F72" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="D73">
+        <f>SUM(D71:D72)</f>
+        <v>4400</v>
       </c>
     </row>
     <row r="78" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2614,7 +2614,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>3800</v>
+        <v>5080</v>
       </c>
       <c r="E71" s="10">
         <v>42448</v>
@@ -2638,7 +2638,7 @@
     <row r="73" spans="1:6">
       <c r="D73">
         <f>SUM(D71:D72)</f>
-        <v>4400</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="78" spans="1:6">

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="210">
   <si>
     <t>姓名</t>
   </si>
@@ -634,10 +634,6 @@
   </si>
   <si>
     <t>已经上过8节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1287,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1490,7 +1486,7 @@
         <v>1400</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J7" s="5">
         <v>1400</v>
@@ -1795,7 +1791,7 @@
         <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17" s="5">
         <v>700</v>
@@ -2028,7 +2024,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>119</v>
@@ -2272,7 +2268,7 @@
         <v>18872140403</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G34" s="5">
         <v>13636290531</v>
@@ -2286,22 +2282,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="E35" s="5">
         <v>18872801072</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G35" s="5">
         <v>13310530582</v>
@@ -2315,22 +2311,22 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E36" s="5">
         <v>15571836352</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G36" s="5">
         <v>18814931567</v>
@@ -2347,16 +2343,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E37" s="5">
         <v>13217183132</v>
@@ -2379,16 +2375,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E38" s="5">
         <v>18872158907</v>
@@ -2411,16 +2407,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="E39" s="5">
         <v>18371841735</v>
@@ -2528,7 +2524,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2614,7 +2610,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>5080</v>
+        <v>6360</v>
       </c>
       <c r="E71" s="10">
         <v>42448</v>
@@ -2632,13 +2628,13 @@
         <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="D73">
         <f>SUM(D71:D72)</f>
-        <v>5680</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2680,7 +2676,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2697,10 +2693,10 @@
         <v>2</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2720,7 +2716,7 @@
         <v>1000</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G86" s="5">
         <v>50</v>
@@ -2743,7 +2739,7 @@
         <v>1000</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G87" s="5">
         <v>50</v>
@@ -2766,7 +2762,7 @@
         <v>1000</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G88" s="5">
         <v>50</v>
@@ -2809,7 +2805,7 @@
         <v>1000</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G90" s="5"/>
     </row>
@@ -2830,7 +2826,7 @@
         <v>1000</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G91" s="5">
         <v>50</v>
@@ -2853,7 +2849,7 @@
         <v>1000</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G92" s="5">
         <v>50</v>
@@ -2876,7 +2872,7 @@
         <v>1000</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G93" s="5"/>
     </row>
@@ -3009,7 +3005,7 @@
         <v>900</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G100" s="5">
         <v>50</v>
@@ -3032,7 +3028,7 @@
         <v>600</v>
       </c>
       <c r="F101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G101" s="5">
         <v>50</v>
@@ -3060,13 +3056,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" t="s">
         <v>167</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>168</v>
-      </c>
-      <c r="C103" t="s">
-        <v>169</v>
       </c>
       <c r="D103" s="8">
         <v>15549222549</v>
@@ -3075,19 +3071,19 @@
         <v>700</v>
       </c>
       <c r="F103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" t="s">
         <v>168</v>
-      </c>
-      <c r="C104" t="s">
-        <v>169</v>
       </c>
       <c r="D104" s="8">
         <v>15172961641</v>
@@ -3096,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G104" s="5">
         <v>50</v>
@@ -3104,13 +3100,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" t="s">
         <v>171</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>172</v>
-      </c>
-      <c r="C105" t="s">
-        <v>173</v>
       </c>
       <c r="D105" s="8">
         <v>15926125672</v>
@@ -3122,13 +3118,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" t="s">
         <v>182</v>
-      </c>
-      <c r="C106" t="s">
-        <v>183</v>
       </c>
       <c r="D106" s="8">
         <v>18727676910</v>
@@ -3140,13 +3136,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
         <v>182</v>
-      </c>
-      <c r="C107" t="s">
-        <v>183</v>
       </c>
       <c r="D107" s="8">
         <v>18671146790</v>
@@ -3158,13 +3154,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" t="s">
         <v>189</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>190</v>
-      </c>
-      <c r="C108" t="s">
-        <v>191</v>
       </c>
       <c r="D108" s="8">
         <v>15727267931</v>
@@ -3175,13 +3171,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" t="s">
         <v>192</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>193</v>
-      </c>
-      <c r="C109" t="s">
-        <v>194</v>
       </c>
       <c r="D109" s="8">
         <v>15586663670</v>
@@ -3195,13 +3191,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" t="s">
         <v>195</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>196</v>
-      </c>
-      <c r="C110" t="s">
-        <v>197</v>
       </c>
       <c r="D110" s="8">
         <v>13477877495</v>
@@ -3212,13 +3208,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
         <v>207</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>208</v>
-      </c>
-      <c r="C111" t="s">
-        <v>209</v>
       </c>
       <c r="D111" s="8">
         <v>18371851610</v>

--- a/华晨培训第二期报名册.xlsx
+++ b/华晨培训第二期报名册.xlsx
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1305,7 +1305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="14.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="11" t="s">
         <v>164</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="14.25">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="11" t="s">
         <v>145</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="14.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="14.25">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="14.25">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="14.25">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="14.25">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="14.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="14.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="14.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
